--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17B66F-9509-458E-B65D-375E48EEFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +59,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +336,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -8,27 +8,75 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17B66F-9509-458E-B65D-375E48EEFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141F021-B3E1-4324-AF19-17C6DD54E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Einkaufsliste</t>
+  </si>
+  <si>
+    <t>Produktname</t>
+  </si>
+  <si>
+    <t>Stk. Zahl</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Preis (in €)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,12 +99,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -337,20 +475,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="2" spans="3:5" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="5" spans="3:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
+        <f>SUM(E6:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Schule\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141F021-B3E1-4324-AF19-17C6DD54E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75188028-AA72-4916-BC21-0B97106B1743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -52,6 +52,12 @@
   <si>
     <t>Preis (in €)</t>
   </si>
+  <si>
+    <t>Unterputz RJ45-Dose, 2-fach, Cat.6</t>
+  </si>
+  <si>
+    <t>Preis/Stück (in €)</t>
+  </si>
 </sst>
 </file>
 
@@ -60,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +88,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -179,11 +191,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,9 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,101 +504,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F20"/>
+  <dimension ref="C2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:6" ht="32.25" x14ac:dyDescent="0.95">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="5" spans="3:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="5" spans="3:6" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>11.6</v>
+      </c>
+      <c r="F6" s="6">
+        <f>PRODUCT(D6,E6)</f>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="4"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C9" s="4"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C10" s="4"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C11" s="4"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="4"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C12" s="4"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C13" s="4"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C14" s="4"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C15" s="4"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C16" s="4"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="4"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="4"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C18" s="4"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C19" s="4"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="4"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9">
-        <f>SUM(E6:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9">
+        <f>SUM(F6:F19)</f>
+        <v>1740</v>
+      </c>
+      <c r="G20" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Schule\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75188028-AA72-4916-BC21-0B97106B1743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18DEB99-A23D-467E-AD30-BFE90E095C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>Preis/Stück (in €)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.at/at/de/shop/produkt/rj45-datendose_cat_6_rechts_links_unterputz_2x_rj45-412714</t>
+  </si>
+  <si>
+    <t>Länge</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Preis</t>
   </si>
 </sst>
 </file>
@@ -66,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +112,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,9 +187,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -174,21 +204,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -198,17 +217,29 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,16 +247,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,28 +542,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:G20"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="8.86328125" customWidth="1"/>
+    <col min="2" max="2" width="27.06640625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="32.25" x14ac:dyDescent="0.95">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:15" ht="32.25" x14ac:dyDescent="0.95">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="5" spans="3:6" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:15" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -538,101 +585,227 @@
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="11" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="2:15" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12">
-        <v>150</v>
+      <c r="D6" s="9">
+        <v>170</v>
       </c>
       <c r="E6">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6">
         <f>PRODUCT(D6,E6)</f>
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1700</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <f>PRODUCT(L6,K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K7" s="4"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7:M19" si="0">PRODUCT(L7,K7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K8" s="4"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K9" s="4"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K10" s="4"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K12" s="4"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K13" s="4"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K14" s="4"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="K15" s="4"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="K16" s="4"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="K17" s="4"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9">
+      <c r="K18" s="4"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="6">
         <f>SUM(F6:F19)</f>
-        <v>1740</v>
+        <v>1700</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{FA5862E7-EEED-4C58-B904-536457355E87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Schule\NWT\gruene_wiese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18DEB99-A23D-467E-AD30-BFE90E095C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB77674-2A4C-4B53-BA1E-874399EB1626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -65,26 +66,33 @@
     <t>https://www.reichelt.at/at/de/shop/produkt/rj45-datendose_cat_6_rechts_links_unterputz_2x_rj45-412714</t>
   </si>
   <si>
-    <t>Länge</t>
-  </si>
-  <si>
     <t>Anzahl</t>
   </si>
   <si>
-    <t>Gesamt</t>
+    <t>Länge (in m)</t>
   </si>
   <si>
-    <t>Preis</t>
+    <t>Etage</t>
+  </si>
+  <si>
+    <t>Gesamt (ohne Reserve, in m)</t>
+  </si>
+  <si>
+    <t>EG (linke Seite)</t>
+  </si>
+  <si>
+    <t>EG (rechte Seite)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +128,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -234,37 +255,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,6 +382,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1939-4660-A6E0-B6146D428D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1511061680"/>
+        <c:axId val="1511080400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1511061680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511080400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1511080400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511061680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8CCFA543-9A8D-43B8-A474-138E7AC69DBE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9285111" cy="5997222"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344E58E9-52D9-621D-39D0-11ABA4C194A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,34 +1479,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="27.06640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="90.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.1328125" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="12" max="12" width="14.796875" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="32.25" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:15" ht="32.4" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="5" spans="2:15" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="L2" s="22"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="5" spans="2:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -582,226 +1522,608 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="2:15" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="9">
         <v>170</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>10</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="11">
         <f>PRODUCT(D6,E6)</f>
         <v>1700</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
-        <f>PRODUCT(L6,K6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
-        <f t="shared" ref="M7:M19" si="0">PRODUCT(L7,K7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="20">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>26</v>
+      </c>
+      <c r="N6" s="11">
+        <f>M6*L6</f>
+        <v>26</v>
+      </c>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="20">
+        <v>3</v>
+      </c>
+      <c r="M7" s="12">
+        <f>M6 - 2</f>
+        <v>24</v>
+      </c>
+      <c r="N7" s="11">
+        <f>M7*L7</f>
+        <v>72</v>
+      </c>
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="20">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" ref="M8:M18" si="0">M7 - 2</f>
+        <v>22</v>
+      </c>
+      <c r="N8" s="11">
+        <f>M8*L8</f>
+        <v>44</v>
+      </c>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="20">
+        <v>2</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13">
+        <v>20</v>
+      </c>
+      <c r="N9" s="11">
+        <f>M9*L9</f>
+        <v>40</v>
+      </c>
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="20">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13">
+        <v>18</v>
+      </c>
+      <c r="N10" s="11">
+        <f>M10*L10</f>
+        <v>18</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="20">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13">
+        <v>16</v>
+      </c>
+      <c r="N11" s="11">
+        <f>M11*L11</f>
+        <v>16</v>
+      </c>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="20">
+        <v>2</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13">
+        <v>14</v>
+      </c>
+      <c r="N12" s="11">
+        <f>M12*L12</f>
+        <v>28</v>
+      </c>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="20">
+        <v>2</v>
+      </c>
+      <c r="M13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13">
+        <v>12</v>
+      </c>
+      <c r="N13" s="11">
+        <f>M13*L13</f>
+        <v>24</v>
+      </c>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="20">
+        <v>2</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <f>M14*L14</f>
+        <v>20</v>
+      </c>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="20">
+        <v>2</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13">
+        <v>8</v>
+      </c>
+      <c r="N15" s="11">
+        <f>M15*L15</f>
+        <v>16</v>
+      </c>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="20">
+        <v>3</v>
+      </c>
+      <c r="M16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13">
+        <v>6</v>
+      </c>
+      <c r="N16" s="11">
+        <f>M16*L16</f>
+        <v>18</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="20">
+        <v>3</v>
+      </c>
+      <c r="M17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13">
+        <v>4</v>
+      </c>
+      <c r="N17" s="11">
+        <f>M17*L17</f>
+        <v>12</v>
+      </c>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="26">
+        <v>3</v>
+      </c>
+      <c r="M18" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="28">
+        <f>M18*L18</f>
+        <v>6</v>
+      </c>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="11">
+        <v>22</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" ref="N19:N45" si="1">M19*L19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11">
         <f>SUM(F6:F19)</f>
         <v>1700</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="O20" t="s">
-        <v>3</v>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="11">
+        <f>M19-2</f>
+        <v>20</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G21" s="17"/>
+      <c r="M21" s="11">
+        <f t="shared" ref="M21:M30" si="2">M20-2</f>
+        <v>18</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M22" s="11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M23" s="11">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M24" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M26" s="11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M27" s="11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M28" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M29" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N41" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{FA5862E7-EEED-4C58-B904-536457355E87}"/>
   </hyperlinks>

--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB77674-2A4C-4B53-BA1E-874399EB1626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556DAB39-A7FC-4B22-8092-ED62DE18891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -83,6 +83,24 @@
   <si>
     <t>EG (rechte Seite)</t>
   </si>
+  <si>
+    <t>EG (Zwischendecke links)</t>
+  </si>
+  <si>
+    <t>EG (Zwischendecke rechts)</t>
+  </si>
+  <si>
+    <t>1-3 (linke Seite)</t>
+  </si>
+  <si>
+    <t>1-3 (rechte Seite)</t>
+  </si>
+  <si>
+    <t>1-3 (Zwischendecke links)</t>
+  </si>
+  <si>
+    <t>1-3 (Zwischendecke rechts)</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +108,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -150,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -288,13 +306,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -340,29 +439,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1479,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O45"/>
+  <dimension ref="B2:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="J54" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67:N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,7 +1637,7 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.77734375" customWidth="1"/>
     <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
@@ -1506,8 +1649,8 @@
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="L2" s="22"/>
-      <c r="O2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
@@ -1537,7 +1680,7 @@
       <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="24"/>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="2:15" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
@@ -1563,17 +1706,17 @@
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6" s="12">
         <v>26</v>
       </c>
       <c r="N6" s="11">
-        <f>M6*L6</f>
+        <f t="shared" ref="N6:N18" si="0">M6*L6</f>
         <v>26</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -1588,7 +1731,7 @@
       <c r="K7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="6">
         <v>3</v>
       </c>
       <c r="M7" s="12">
@@ -1596,10 +1739,10 @@
         <v>24</v>
       </c>
       <c r="N7" s="11">
-        <f>M7*L7</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
@@ -1614,18 +1757,18 @@
       <c r="K8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="6">
         <v>2</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" ref="M8:M18" si="0">M7 - 2</f>
+        <f t="shared" ref="M8:M18" si="1">M7 - 2</f>
         <v>22</v>
       </c>
       <c r="N8" s="11">
-        <f>M8*L8</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
@@ -1640,18 +1783,18 @@
       <c r="K9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="6">
         <v>2</v>
       </c>
       <c r="M9" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N9" s="11">
-        <f>M9*L9</f>
         <v>40</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
@@ -1666,18 +1809,18 @@
       <c r="K10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10" s="12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N10" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N10" s="11">
-        <f>M10*L10</f>
-        <v>18</v>
-      </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
@@ -1692,18 +1835,18 @@
       <c r="K11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N11" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N11" s="11">
-        <f>M11*L11</f>
-        <v>16</v>
-      </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
@@ -1718,18 +1861,18 @@
       <c r="K12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="6">
         <v>2</v>
       </c>
       <c r="M12" s="12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N12" s="11">
-        <f>M12*L12</f>
         <v>28</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
@@ -1744,18 +1887,18 @@
       <c r="K13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="6">
         <v>2</v>
       </c>
       <c r="M13" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N13" s="11">
-        <f>M13*L13</f>
         <v>24</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
@@ -1770,18 +1913,18 @@
       <c r="K14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="6">
         <v>2</v>
       </c>
       <c r="M14" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N14" s="11">
-        <f>M14*L14</f>
         <v>20</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
@@ -1796,18 +1939,18 @@
       <c r="K15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="6">
         <v>2</v>
       </c>
       <c r="M15" s="12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N15" s="11">
-        <f>M15*L15</f>
         <v>16</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
@@ -1822,18 +1965,18 @@
       <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="6">
         <v>3</v>
       </c>
       <c r="M16" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N16" s="11">
-        <f>M16*L16</f>
         <v>18</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
@@ -1848,18 +1991,18 @@
       <c r="K17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="6">
         <v>3</v>
       </c>
       <c r="M17" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N17" s="11">
-        <f>M17*L17</f>
         <v>12</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
@@ -1871,21 +2014,21 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="23">
         <v>3</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="28">
-        <f>M18*L18</f>
         <v>6</v>
       </c>
-      <c r="O18" s="23"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
@@ -1897,17 +2040,20 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="29" t="s">
         <v>14</v>
+      </c>
+      <c r="L19" s="27">
+        <v>4</v>
       </c>
       <c r="M19" s="11">
         <v>22</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" ref="N19:N45" si="1">M19*L19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="19"/>
+        <f t="shared" ref="N19:N45" si="2">M19*L19</f>
+        <v>88</v>
+      </c>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
@@ -1924,203 +2070,983 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="10">
+        <v>3</v>
+      </c>
       <c r="M20" s="11">
         <f>M19-2</f>
         <v>20</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="19"/>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G21" s="17"/>
+      <c r="K21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="27">
+        <v>3</v>
+      </c>
       <c r="M21" s="11">
-        <f t="shared" ref="M21:M30" si="2">M20-2</f>
+        <f t="shared" ref="M21:M29" si="3">M20-2</f>
         <v>18</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="25"/>
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="27">
+        <v>3</v>
+      </c>
       <c r="M22" s="11">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="27">
+        <v>3</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="27">
+        <v>2</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="27">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="27">
+        <v>2</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N26" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="25"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M23" s="11">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M24" s="11">
+      <c r="L27" s="27">
+        <v>2</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N27" s="11">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M25" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M26" s="11">
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="27">
+        <v>2</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N28" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M27" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M28" s="11">
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="28">
+        <v>2</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="25">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N28" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M29" s="11">
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="27">
+        <v>11</v>
+      </c>
+      <c r="M30" s="33">
+        <v>6</v>
+      </c>
+      <c r="N30" s="31">
+        <f>L30*M30</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K31" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="27">
+        <v>10</v>
+      </c>
+      <c r="M31" s="34">
+        <f>M30-2</f>
+        <v>4</v>
+      </c>
+      <c r="N31" s="31">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N31" s="11"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="K32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="28">
+        <v>11</v>
+      </c>
+      <c r="M32" s="35">
+        <f t="shared" ref="M32:M35" si="4">M31-2</f>
+        <v>2</v>
+      </c>
+      <c r="N32" s="23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K33" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="36">
+        <v>8</v>
+      </c>
+      <c r="M33" s="27">
+        <v>6</v>
+      </c>
       <c r="N33" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K34" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="12">
+        <v>6</v>
+      </c>
+      <c r="M34" s="27">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="N34" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="38">
+        <v>9</v>
+      </c>
+      <c r="M35" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N35" s="40">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K36" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="41">
+        <v>7</v>
+      </c>
+      <c r="M36" s="10">
+        <v>26</v>
+      </c>
       <c r="N36" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+        <f>L36*M36*3</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="12">
+        <v>2</v>
+      </c>
+      <c r="M37" s="10">
+        <v>24</v>
+      </c>
       <c r="N37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N37:N48" si="5">L37*M37*3</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="12">
+        <v>2</v>
+      </c>
+      <c r="M38" s="10">
+        <f>M37-2</f>
+        <v>22</v>
+      </c>
       <c r="N38" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K39" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="12">
+        <v>3</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" ref="M39:M48" si="6">M38-2</f>
+        <v>20</v>
+      </c>
       <c r="N39" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K40" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="12">
+        <v>2</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="N40" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K41" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="12">
+        <v>2</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
       <c r="N41" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="12">
+        <v>2</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
       <c r="N42" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K43" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="12">
+        <v>3</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
       <c r="N43" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K44" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="12">
+        <v>2</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
       <c r="N44" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K45" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="12">
+        <v>2</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
       <c r="N45" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K46" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="12">
+        <v>2</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="12">
+        <v>3</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="N47" s="11">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K48" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="24">
+        <v>3</v>
+      </c>
+      <c r="M48" s="23">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N48" s="25">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="29">
+        <v>5</v>
+      </c>
+      <c r="M49" s="33">
+        <v>26</v>
+      </c>
+      <c r="N49" s="10">
+        <f>L49*M49*3</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2</v>
+      </c>
+      <c r="M50" s="12">
+        <f>M49-2</f>
+        <v>24</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" ref="N50:N67" si="7">L50*M50*3</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2</v>
+      </c>
+      <c r="M51" s="12">
+        <f t="shared" ref="M51:M60" si="8">M50-2</f>
+        <v>22</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="6">
+        <v>2</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="6">
+        <v>2</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="6">
+        <v>2</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="6">
+        <v>2</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="6">
+        <v>3</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="6">
+        <v>2</v>
+      </c>
+      <c r="M57" s="12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="6">
+        <v>2</v>
+      </c>
+      <c r="M58" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="6">
+        <v>2</v>
+      </c>
+      <c r="M59" s="12">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="6">
+        <v>2</v>
+      </c>
+      <c r="M60" s="12">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K61" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="26">
+        <v>2</v>
+      </c>
+      <c r="M61" s="24">
+        <f>M60-2</f>
+        <v>2</v>
+      </c>
+      <c r="N61" s="23">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K62" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="12">
+        <v>6</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="10">
+        <v>9</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" ref="M62:M67" si="9">M62-2</f>
+        <v>4</v>
+      </c>
+      <c r="N63" s="10">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K64" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="23">
+        <v>10</v>
+      </c>
+      <c r="M64" s="24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="10">
+        <v>10</v>
+      </c>
+      <c r="M65" s="12">
+        <v>6</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="10">
+        <v>6</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K67" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="43">
+        <v>6</v>
+      </c>
+      <c r="M67" s="38">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N67" s="43">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+    </row>
+    <row r="79" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+    </row>
+    <row r="80" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+    </row>
+    <row r="84" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+    </row>
+    <row r="87" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+    </row>
+    <row r="90" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+    </row>
+    <row r="91" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+    </row>
+    <row r="92" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+    </row>
+    <row r="94" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+    </row>
+    <row r="95" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+    </row>
+    <row r="96" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+    </row>
+    <row r="97" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+    </row>
+    <row r="98" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+    </row>
+    <row r="99" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+    </row>
+    <row r="100" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+    </row>
+    <row r="101" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+    </row>
+    <row r="102" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Schule\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556DAB39-A7FC-4B22-8092-ED62DE18891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A347773B-C0B6-4EB0-8395-EB2E35368978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -101,14 +101,30 @@
   <si>
     <t>1-3 (Zwischendecke rechts)</t>
   </si>
+  <si>
+    <t>DG(linke Seite)</t>
+  </si>
+  <si>
+    <t>DG(rechte Seite)</t>
+  </si>
+  <si>
+    <t>DG(Zwischendecke)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt: </t>
+  </si>
+  <si>
+    <t>Gesamt (mit 7.5% Reserve):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -168,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -387,13 +403,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -457,43 +484,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,17 +505,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,7 +533,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1624,27 +1627,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J54" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67:N67"/>
+    <sheetView tabSelected="1" topLeftCell="H76" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="90.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" customWidth="1"/>
+    <col min="2" max="2" width="90.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1328125" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.73046875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="32.25" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1655,7 @@
       <c r="L2" s="20"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="5" spans="2:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1685,7 @@
       </c>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1718,7 +1721,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1744,7 +1747,7 @@
       </c>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1770,7 +1773,7 @@
       </c>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1796,7 +1799,7 @@
       </c>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1822,7 +1825,7 @@
       </c>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1848,7 +1851,7 @@
       </c>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1874,7 +1877,7 @@
       </c>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1900,7 +1903,7 @@
       </c>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1926,7 +1929,7 @@
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1978,7 +1981,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2030,7 +2033,7 @@
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2040,22 +2043,22 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="10">
         <v>4</v>
       </c>
       <c r="M19" s="11">
         <v>22</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" ref="N19:N45" si="2">M19*L19</f>
+        <f t="shared" ref="N19:N35" si="2">M19*L19</f>
         <v>88</v>
       </c>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2086,12 +2089,12 @@
       </c>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G21" s="17"/>
       <c r="K21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="10">
         <v>3</v>
       </c>
       <c r="M21" s="11">
@@ -2103,11 +2106,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="10">
         <v>3</v>
       </c>
       <c r="M22" s="11">
@@ -2119,11 +2122,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="10">
         <v>3</v>
       </c>
       <c r="M23" s="11">
@@ -2135,11 +2138,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="10">
         <v>2</v>
       </c>
       <c r="M24" s="11">
@@ -2151,11 +2154,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="10">
         <v>1</v>
       </c>
       <c r="M25" s="11">
@@ -2167,11 +2170,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="10">
         <v>2</v>
       </c>
       <c r="M26" s="11">
@@ -2183,11 +2186,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="10">
         <v>2</v>
       </c>
       <c r="M27" s="11">
@@ -2199,11 +2202,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="10">
         <v>2</v>
       </c>
       <c r="M28" s="11">
@@ -2215,12 +2218,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="28">
-        <v>2</v>
+      <c r="L29" s="23">
+        <v>3</v>
       </c>
       <c r="M29" s="25">
         <f t="shared" si="3"/>
@@ -2228,48 +2231,48 @@
       </c>
       <c r="N29" s="25">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K30" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="K30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="10">
         <v>11</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="28">
         <v>6</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="10">
         <f>L30*M30</f>
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K31" s="30" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="K31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="10">
         <v>10</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="12">
         <f>M30-2</f>
         <v>4</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="10">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K32" s="32" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="K32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="23">
         <v>11</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="24">
         <f t="shared" ref="M32:M35" si="4">M31-2</f>
         <v>2</v>
       </c>
@@ -2278,14 +2281,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K33" s="30" t="s">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="28">
         <v>8</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M33" s="10">
         <v>6</v>
       </c>
       <c r="N33" s="11">
@@ -2293,14 +2296,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K34" s="30" t="s">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L34" s="12">
         <v>6</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M34" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2309,39 +2312,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="37" t="s">
+    <row r="35" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K35" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="30">
         <v>9</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="31">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N35" s="40">
+      <c r="N35" s="32">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K36" s="30" t="s">
+    <row r="36" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="33">
         <v>7</v>
       </c>
       <c r="M36" s="10">
         <v>26</v>
       </c>
       <c r="N36" s="11">
-        <f>L36*M36*3</f>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K37" s="30" t="s">
+        <f>L36*M36*3+30</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L37" s="12">
@@ -2351,12 +2354,12 @@
         <v>24</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" ref="N37:N48" si="5">L37*M37*3</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K38" s="30" t="s">
+        <f t="shared" ref="N37:N67" si="5">L37*M37*3+30</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="12">
@@ -2368,11 +2371,11 @@
       </c>
       <c r="N38" s="11">
         <f t="shared" si="5"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K39" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L39" s="12">
@@ -2384,11 +2387,11 @@
       </c>
       <c r="N39" s="11">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K40" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L40" s="12">
@@ -2400,11 +2403,11 @@
       </c>
       <c r="N40" s="11">
         <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K41" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L41" s="12">
@@ -2416,11 +2419,11 @@
       </c>
       <c r="N41" s="11">
         <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K42" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K42" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L42" s="12">
@@ -2432,11 +2435,11 @@
       </c>
       <c r="N42" s="11">
         <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K43" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L43" s="12">
@@ -2448,11 +2451,11 @@
       </c>
       <c r="N43" s="11">
         <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K44" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="12">
@@ -2464,11 +2467,11 @@
       </c>
       <c r="N44" s="11">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K45" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L45" s="12">
@@ -2480,11 +2483,11 @@
       </c>
       <c r="N45" s="11">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K46" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="12">
@@ -2496,11 +2499,11 @@
       </c>
       <c r="N46" s="11">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K47" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="12">
@@ -2512,11 +2515,11 @@
       </c>
       <c r="N47" s="11">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K48" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K48" s="26" t="s">
         <v>17</v>
       </c>
       <c r="L48" s="24">
@@ -2528,25 +2531,25 @@
       </c>
       <c r="N48" s="25">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L49" s="27">
         <v>5</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="28">
         <v>26</v>
       </c>
-      <c r="N49" s="10">
-        <f>L49*M49*3</f>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N49" s="11">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K50" s="6" t="s">
         <v>18</v>
       </c>
@@ -2557,12 +2560,12 @@
         <f>M49-2</f>
         <v>24</v>
       </c>
-      <c r="N50" s="10">
-        <f t="shared" ref="N50:N67" si="7">L50*M50*3</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N50" s="11">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K51" s="6" t="s">
         <v>18</v>
       </c>
@@ -2570,15 +2573,15 @@
         <v>2</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" ref="M51:M60" si="8">M50-2</f>
+        <f t="shared" ref="M51:M60" si="7">M50-2</f>
         <v>22</v>
       </c>
-      <c r="N51" s="10">
-        <f t="shared" si="7"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N51" s="11">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K52" s="6" t="s">
         <v>18</v>
       </c>
@@ -2586,15 +2589,15 @@
         <v>2</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="N52" s="10">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N52" s="11">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K53" s="6" t="s">
         <v>18</v>
       </c>
@@ -2602,15 +2605,15 @@
         <v>2</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="N53" s="10">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N53" s="11">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K54" s="6" t="s">
         <v>18</v>
       </c>
@@ -2618,15 +2621,15 @@
         <v>2</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="N54" s="10">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N54" s="11">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K55" s="6" t="s">
         <v>18</v>
       </c>
@@ -2634,15 +2637,15 @@
         <v>2</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="N55" s="10">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N55" s="11">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K56" s="6" t="s">
         <v>18</v>
       </c>
@@ -2650,15 +2653,15 @@
         <v>3</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="N56" s="10">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K57" s="6" t="s">
         <v>18</v>
       </c>
@@ -2666,15 +2669,15 @@
         <v>2</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="N57" s="10">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N57" s="11">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K58" s="6" t="s">
         <v>18</v>
       </c>
@@ -2682,15 +2685,15 @@
         <v>2</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="N58" s="10">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N58" s="11">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K59" s="6" t="s">
         <v>18</v>
       </c>
@@ -2698,15 +2701,15 @@
         <v>2</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="N59" s="10">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="N59" s="11">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K60" s="6" t="s">
         <v>18</v>
       </c>
@@ -2714,335 +2717,606 @@
         <v>2</v>
       </c>
       <c r="M60" s="12">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K61" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="26">
+        <v>2</v>
+      </c>
+      <c r="M61" s="24">
+        <f>M60-2</f>
+        <v>2</v>
+      </c>
+      <c r="N61" s="25">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K62" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="12">
+        <v>6</v>
+      </c>
+      <c r="N62" s="11">
+        <f t="shared" si="5"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="10">
+        <v>9</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" ref="M63:M67" si="8">M62-2</f>
+        <v>4</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K64" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="23">
+        <v>10</v>
+      </c>
+      <c r="M64" s="24">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N64" s="25">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="10">
+        <v>10</v>
+      </c>
+      <c r="M65" s="12">
+        <v>6</v>
+      </c>
+      <c r="N65" s="11">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="10">
+        <v>6</v>
+      </c>
+      <c r="M66" s="12">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="N60" s="10">
-        <f t="shared" si="7"/>
+      <c r="N66" s="11">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="31">
+        <v>6</v>
+      </c>
+      <c r="M67" s="30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N67" s="11">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="33">
+        <v>1</v>
+      </c>
+      <c r="M68" s="10">
+        <v>26</v>
+      </c>
+      <c r="N68" s="34">
+        <f>L68*M68 + 15</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="12">
+        <v>2</v>
+      </c>
+      <c r="M69" s="10">
+        <f>M68-2</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K61" s="26" t="s">
+      <c r="N69" s="11">
+        <f t="shared" ref="N69:N94" si="9">L69*M69 + 15</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="12">
+        <v>2</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" ref="M70:M79" si="10">M69-2</f>
+        <v>22</v>
+      </c>
+      <c r="N70" s="11">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K71" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="12">
+        <v>3</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="N71" s="11">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="12">
+        <v>2</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="L61" s="26">
-        <v>2</v>
-      </c>
-      <c r="M61" s="24">
-        <f>M60-2</f>
-        <v>2</v>
-      </c>
-      <c r="N61" s="23">
-        <f t="shared" si="7"/>
+      <c r="N72" s="11">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="12">
+        <v>2</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="N73" s="11">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K74" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="12">
+        <v>2</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="N74" s="11">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="12">
+        <v>2</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K62" s="29" t="s">
+      <c r="N75" s="11">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="12">
+        <v>2</v>
+      </c>
+      <c r="M76" s="10">
+        <f>M75-2</f>
+        <v>10</v>
+      </c>
+      <c r="N76" s="11">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K77" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="12">
+        <v>2</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="N77" s="11">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" s="12">
+        <v>3</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N78" s="11">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K79" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" s="12">
+        <v>3</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N79" s="11">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K80" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80" s="24">
+        <v>3</v>
+      </c>
+      <c r="M80" s="23">
+        <f>M79-2</f>
+        <v>2</v>
+      </c>
+      <c r="N80" s="25">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="12">
+        <v>3</v>
+      </c>
+      <c r="M81" s="10">
+        <v>14</v>
+      </c>
+      <c r="N81" s="11">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="12">
+        <v>2</v>
+      </c>
+      <c r="M82" s="10">
+        <f>M81-2</f>
+        <v>12</v>
+      </c>
+      <c r="N82" s="11">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="12">
+        <v>3</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" ref="M83:M87" si="11">M82-2</f>
+        <v>10</v>
+      </c>
+      <c r="N83" s="11">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="12">
+        <v>5</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="N84" s="11">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K85" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="12">
+        <v>1</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="N85" s="11">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K86" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="12">
+        <v>2</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N86" s="11">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="12">
+        <v>1</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N87" s="11">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K88" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="12">
+        <v>2</v>
+      </c>
+      <c r="M88" s="10">
+        <v>4</v>
+      </c>
+      <c r="N88" s="11">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K89" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="24">
+        <v>2</v>
+      </c>
+      <c r="M89" s="23">
+        <v>2</v>
+      </c>
+      <c r="N89" s="25">
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="L62" s="10">
-        <v>13</v>
-      </c>
-      <c r="M62" s="12">
+    </row>
+    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="12">
+        <v>33</v>
+      </c>
+      <c r="M90" s="10">
+        <v>2</v>
+      </c>
+      <c r="N90" s="11">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K91" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="12">
+        <v>8</v>
+      </c>
+      <c r="M91" s="10">
+        <v>4</v>
+      </c>
+      <c r="N91" s="11">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="12">
+        <v>5</v>
+      </c>
+      <c r="M92" s="10">
         <v>6</v>
       </c>
-      <c r="N62" s="10">
-        <f t="shared" si="7"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L63" s="10">
-        <v>9</v>
-      </c>
-      <c r="M63" s="12">
-        <f t="shared" ref="M62:M67" si="9">M62-2</f>
+      <c r="N92" s="11">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K93" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="12">
         <v>4</v>
       </c>
-      <c r="N63" s="10">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L64" s="23">
-        <v>10</v>
-      </c>
-      <c r="M64" s="24">
+      <c r="M93" s="10">
+        <v>14</v>
+      </c>
+      <c r="N93" s="11">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N64" s="23">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K65" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="10">
-        <v>10</v>
-      </c>
-      <c r="M65" s="12">
-        <v>6</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K66" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="10">
-        <v>6</v>
-      </c>
-      <c r="M66" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K94" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="30">
+        <v>5</v>
+      </c>
+      <c r="M94" s="31">
+        <v>22</v>
+      </c>
+      <c r="N94" s="32">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K67" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="43">
-        <v>6</v>
-      </c>
-      <c r="M67" s="38">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N67" s="43">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-    </row>
-    <row r="71" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-    </row>
-    <row r="76" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-    </row>
-    <row r="77" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-    </row>
-    <row r="78" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-    </row>
-    <row r="80" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-    </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-    </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-    </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-    </row>
-    <row r="84" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-    </row>
-    <row r="85" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-    </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-    </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-    </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-    </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-    </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-    </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-    </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-    </row>
-    <row r="96" spans="11:14" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K95" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="15">
+        <f>SUM(N6:N94)</f>
+        <v>6767</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="35">
+        <f>L95+L95*0.075</f>
+        <v>7274.5249999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="11:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>

--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Schule\NWT\gruene_wiese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A347773B-C0B6-4EB0-8395-EB2E35368978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5893C51-0F11-4D7A-8A2C-BD3E917EF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -116,6 +116,42 @@
   <si>
     <t>Gesamt (mit 7.5% Reserve):</t>
   </si>
+  <si>
+    <t>Kabelkanäle</t>
+  </si>
+  <si>
+    <t>EG (Zwischendecke WC)</t>
+  </si>
+  <si>
+    <t>1.Stockwerk - 3. Stockwerk</t>
+  </si>
+  <si>
+    <t>1.-3. (Zwischendecke)</t>
+  </si>
+  <si>
+    <t>DG (linke Seite)</t>
+  </si>
+  <si>
+    <t>DG (rechte Seite)</t>
+  </si>
+  <si>
+    <t>DG (Zwischendecke links)</t>
+  </si>
+  <si>
+    <t>DG (Zwischendecke rechts)</t>
+  </si>
+  <si>
+    <t>Gesamt mit Reserve (7.5%):</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.at/at/de/shop/produkt/cat_6_netzwerkkabel_s_ftp_grau_305_m-350271</t>
+  </si>
+  <si>
+    <t>Cat.6 Netzwerkkabel, S/FTP, grau, 305 m</t>
+  </si>
+  <si>
+    <t>Kabeltrassen</t>
+  </si>
 </sst>
 </file>
 
@@ -124,9 +160,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +211,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -414,13 +457,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -508,14 +582,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,7 +643,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1625,29 +1735,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O103"/>
+  <dimension ref="B2:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H76" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="90.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.1328125" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="90.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="32.25" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:20" ht="32.4" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1770,23 @@
       <c r="L2" s="20"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="5" spans="2:15" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:20" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="K3" s="36"/>
+      <c r="P3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="2:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1684,8 +1815,21 @@
         <v>12</v>
       </c>
       <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="2:15" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="P5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1720,13 +1864,37 @@
         <v>26</v>
       </c>
       <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+      <c r="P6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>7</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10">
+        <v>282.3</v>
+      </c>
+      <c r="F7" s="11">
+        <f>PRODUCT(D7,E7)</f>
+        <v>7057.5</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1746,8 +1914,21 @@
         <v>72</v>
       </c>
       <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>11</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1772,8 +1953,21 @@
         <v>44</v>
       </c>
       <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>7</v>
+      </c>
+      <c r="R8" s="37"/>
+      <c r="S8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1798,8 +1992,22 @@
         <v>40</v>
       </c>
       <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>7</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="45">
+        <f>35*3</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1824,8 +2032,21 @@
         <v>18</v>
       </c>
       <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>11</v>
+      </c>
+      <c r="R10" s="37"/>
+      <c r="S10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1850,8 +2071,21 @@
         <v>16</v>
       </c>
       <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>5</v>
+      </c>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1876,8 +2110,22 @@
         <v>28</v>
       </c>
       <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="37">
+        <f>7*6</f>
+        <v>42</v>
+      </c>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1902,8 +2150,23 @@
         <v>24</v>
       </c>
       <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="37">
+        <f>11*6</f>
+        <v>66</v>
+      </c>
+      <c r="R13" s="37"/>
+      <c r="S13" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="48">
+        <f>SUM(T6:T12)</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1928,8 +2191,23 @@
         <v>20</v>
       </c>
       <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="25">
+        <f>7*6</f>
+        <v>42</v>
+      </c>
+      <c r="R14" s="37"/>
+      <c r="S14" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="37">
+        <f>T13 + T13 * 0.075</f>
+        <v>360.125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1954,8 +2232,17 @@
         <v>16</v>
       </c>
       <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>7</v>
+      </c>
+      <c r="R15" s="37"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1980,8 +2267,17 @@
         <v>18</v>
       </c>
       <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P16" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>11</v>
+      </c>
+      <c r="R16" s="37"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="37"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2006,8 +2302,17 @@
         <v>12</v>
       </c>
       <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>7</v>
+      </c>
+      <c r="R17" s="37"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="37"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2032,8 +2337,17 @@
         <v>6</v>
       </c>
       <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>4</v>
+      </c>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2057,15 +2371,24 @@
         <v>88</v>
       </c>
       <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="P19" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>5</v>
+      </c>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+    </row>
+    <row r="20" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11">
         <f>SUM(F6:F19)</f>
-        <v>1700</v>
+        <v>8757.5</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>3</v>
@@ -2088,8 +2411,17 @@
         <v>60</v>
       </c>
       <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>8</v>
+      </c>
+      <c r="R20" s="39"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G21" s="17"/>
       <c r="K21" s="6" t="s">
         <v>14</v>
@@ -2105,8 +2437,17 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>7</v>
+      </c>
+      <c r="R21" s="39"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+    </row>
+    <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2121,8 +2462,18 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P22" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="31">
+        <f>SUM(Q6:Q21)</f>
+        <v>247</v>
+      </c>
+      <c r="R22" s="39"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2137,8 +2488,18 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="37">
+        <f>Q22 + Q22 * 0.075</f>
+        <v>265.52499999999998</v>
+      </c>
+      <c r="R23" s="39"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2153,8 +2514,11 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="R24" s="39"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K25" s="6" t="s">
         <v>14</v>
       </c>
@@ -2169,8 +2533,11 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="R25" s="39"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K26" s="6" t="s">
         <v>14</v>
       </c>
@@ -2185,8 +2552,13 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K27" s="6" t="s">
         <v>14</v>
       </c>
@@ -2201,8 +2573,13 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K28" s="6" t="s">
         <v>14</v>
       </c>
@@ -2217,8 +2594,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P28" s="37"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="39"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K29" s="26" t="s">
         <v>14</v>
       </c>
@@ -2233,8 +2613,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="R29" s="39"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K30" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2629,9 @@
         <f>L30*M30</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="R30" s="39"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K31" s="6" t="s">
         <v>15</v>
       </c>
@@ -2264,8 +2646,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K32" s="26" t="s">
         <v>15</v>
       </c>
@@ -2280,8 +2666,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K33" s="6" t="s">
         <v>16</v>
       </c>
@@ -2295,8 +2685,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K34" s="6" t="s">
         <v>16</v>
       </c>
@@ -2311,8 +2705,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+    </row>
+    <row r="35" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K35" s="29" t="s">
         <v>16</v>
       </c>
@@ -2327,8 +2725,12 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K36" s="6" t="s">
         <v>17</v>
       </c>
@@ -2342,8 +2744,12 @@
         <f>L36*M36*3+30</f>
         <v>576</v>
       </c>
-    </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K37" s="6" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2764,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K38" s="6" t="s">
         <v>17</v>
       </c>
@@ -2374,7 +2780,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K39" s="6" t="s">
         <v>17</v>
       </c>
@@ -2390,7 +2796,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K40" s="6" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K41" s="6" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2828,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K42" s="6" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2844,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K43" s="6" t="s">
         <v>17</v>
       </c>
@@ -2454,7 +2860,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K44" s="6" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K45" s="6" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K46" s="6" t="s">
         <v>17</v>
       </c>
@@ -2502,7 +2908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K47" s="6" t="s">
         <v>17</v>
       </c>
@@ -2518,7 +2924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K48" s="26" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +2940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K49" s="6" t="s">
         <v>18</v>
       </c>
@@ -2549,7 +2955,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K50" s="6" t="s">
         <v>18</v>
       </c>
@@ -2565,7 +2971,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K51" s="6" t="s">
         <v>18</v>
       </c>
@@ -2581,7 +2987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K52" s="6" t="s">
         <v>18</v>
       </c>
@@ -2597,7 +3003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K53" s="6" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +3019,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K54" s="6" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +3035,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K55" s="6" t="s">
         <v>18</v>
       </c>
@@ -2645,7 +3051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K56" s="6" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +3067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K57" s="6" t="s">
         <v>18</v>
       </c>
@@ -2677,7 +3083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K58" s="6" t="s">
         <v>18</v>
       </c>
@@ -2693,7 +3099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K59" s="6" t="s">
         <v>18</v>
       </c>
@@ -2709,7 +3115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K60" s="6" t="s">
         <v>18</v>
       </c>
@@ -2725,7 +3131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K61" s="26" t="s">
         <v>18</v>
       </c>
@@ -2741,7 +3147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K62" s="27" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +3162,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K63" s="6" t="s">
         <v>19</v>
       </c>
@@ -2772,7 +3178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K64" s="26" t="s">
         <v>19</v>
       </c>
@@ -2788,7 +3194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K65" s="6" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +3209,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K66" s="6" t="s">
         <v>20</v>
       </c>
@@ -2819,7 +3225,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K67" s="29" t="s">
         <v>20</v>
       </c>
@@ -2835,7 +3241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K68" s="10" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K69" s="10" t="s">
         <v>21</v>
       </c>
@@ -2866,7 +3272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K70" s="10" t="s">
         <v>21</v>
       </c>
@@ -2882,7 +3288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K71" s="10" t="s">
         <v>21</v>
       </c>
@@ -2898,7 +3304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K72" s="10" t="s">
         <v>21</v>
       </c>
@@ -2914,7 +3320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +3336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K74" s="10" t="s">
         <v>21</v>
       </c>
@@ -2946,7 +3352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K75" s="10" t="s">
         <v>21</v>
       </c>
@@ -2962,7 +3368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K76" s="10" t="s">
         <v>21</v>
       </c>
@@ -2978,7 +3384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K77" s="10" t="s">
         <v>21</v>
       </c>
@@ -2994,7 +3400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K78" s="10" t="s">
         <v>21</v>
       </c>
@@ -3010,7 +3416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K79" s="10" t="s">
         <v>21</v>
       </c>
@@ -3026,7 +3432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K80" s="23" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K81" s="10" t="s">
         <v>22</v>
       </c>
@@ -3057,7 +3463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3073,7 +3479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K83" s="10" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +3495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K84" s="10" t="s">
         <v>22</v>
       </c>
@@ -3105,7 +3511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K85" s="10" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K86" s="10" t="s">
         <v>22</v>
       </c>
@@ -3137,7 +3543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K87" s="10" t="s">
         <v>22</v>
       </c>
@@ -3153,7 +3559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K88" s="10" t="s">
         <v>22</v>
       </c>
@@ -3168,7 +3574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K89" s="23" t="s">
         <v>22</v>
       </c>
@@ -3183,7 +3589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K90" s="10" t="s">
         <v>23</v>
       </c>
@@ -3198,7 +3604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K91" s="10" t="s">
         <v>23</v>
       </c>
@@ -3213,7 +3619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K92" s="10" t="s">
         <v>23</v>
       </c>
@@ -3228,7 +3634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K93" s="10" t="s">
         <v>23</v>
       </c>
@@ -3243,7 +3649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K94" s="31" t="s">
         <v>23</v>
       </c>
@@ -3258,7 +3664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
@@ -3274,49 +3680,49 @@
         <v>7274.5249999999996</v>
       </c>
     </row>
-    <row r="96" spans="11:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="11:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
@@ -3326,8 +3732,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{FA5862E7-EEED-4C58-B904-536457355E87}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{02BCA972-DCD1-4653-99E4-0BC9A292F8EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5893C51-0F11-4D7A-8A2C-BD3E917EF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFF91E-A26B-4063-AFCD-707C7F608184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -151,16 +151,21 @@
   </si>
   <si>
     <t>Kabeltrassen</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.at/at/de/shop/produkt/wlan_access_point_2_4_5_ghz_2973_mbit_s-358906</t>
+  </si>
+  <si>
+    <t>Alta Labs Access Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -494,7 +499,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -522,16 +527,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -541,7 +540,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,19 +581,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,17 +597,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1737,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,24 +1748,17 @@
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="L2" s="20"/>
-      <c r="O2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="2:20" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="K3" s="36"/>
-      <c r="P3" s="40" t="s">
+      <c r="K3" s="34"/>
+      <c r="P3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="2:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
@@ -1814,14 +1788,14 @@
       <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="38"/>
+      <c r="R5" s="10"/>
       <c r="S5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1863,18 +1837,17 @@
         <f t="shared" ref="N6:N18" si="0">M6*L6</f>
         <v>26</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="10">
         <v>7</v>
       </c>
-      <c r="R6" s="37"/>
       <c r="S6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1913,27 +1886,38 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="37" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="11">
         <v>11</v>
       </c>
-      <c r="R7" s="37"/>
+      <c r="R7" s="10"/>
       <c r="S7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>161.32</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" ref="F8:F19" si="1">PRODUCT(D8,E8)</f>
+        <v>1613.1999999999998</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1945,25 +1929,25 @@
         <v>2</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" ref="M8:M18" si="1">M7 - 2</f>
+        <f t="shared" ref="M8:M18" si="2">M7 - 2</f>
         <v>22</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="19"/>
+      <c r="P8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="21">
         <v>7</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="26" t="s">
+      <c r="R8" s="10"/>
+      <c r="S8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="21">
         <v>30</v>
       </c>
     </row>
@@ -1972,7 +1956,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1984,25 +1971,25 @@
         <v>2</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O9" s="21"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="10">
         <v>7</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="44" t="s">
+      <c r="R9" s="10"/>
+      <c r="S9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="38">
         <f>35*3</f>
         <v>105</v>
       </c>
@@ -2012,7 +1999,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2024,25 +2014,25 @@
         <v>1</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="10">
         <v>11</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="26" t="s">
+      <c r="R10" s="10"/>
+      <c r="S10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="23">
         <v>90</v>
       </c>
     </row>
@@ -2051,7 +2041,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2063,22 +2056,22 @@
         <v>1</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="26" t="s">
+      <c r="O11" s="19"/>
+      <c r="P11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="21">
         <v>5</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37" t="s">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T11" s="11">
@@ -2090,7 +2083,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2102,26 +2098,26 @@
         <v>2</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="42" t="s">
+      <c r="O12" s="19"/>
+      <c r="P12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="10">
         <f>7*6</f>
         <v>42</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37" t="s">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="11">
         <v>38</v>
       </c>
     </row>
@@ -2130,7 +2126,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -2142,26 +2141,25 @@
         <v>2</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="42" t="s">
+      <c r="O13" s="19"/>
+      <c r="P13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="10">
         <f>11*6</f>
         <v>66</v>
       </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="47" t="s">
+      <c r="S13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="40">
         <f>SUM(T6:T12)</f>
         <v>335</v>
       </c>
@@ -2171,7 +2169,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2183,26 +2184,26 @@
         <v>2</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="43" t="s">
+      <c r="O14" s="19"/>
+      <c r="P14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="23">
         <f>7*6</f>
         <v>42</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="49" t="s">
+      <c r="R14" s="10"/>
+      <c r="S14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="10">
         <f>T13 + T13 * 0.075</f>
         <v>360.125</v>
       </c>
@@ -2212,7 +2213,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2224,30 +2228,33 @@
         <v>2</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="37" t="s">
+      <c r="O15" s="19"/>
+      <c r="P15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q15" s="11">
         <v>7</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="37"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2259,30 +2266,33 @@
         <v>3</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="37" t="s">
+      <c r="O16" s="19"/>
+      <c r="P16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q16" s="11">
         <v>11</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="37"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2294,70 +2304,73 @@
         <v>3</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="23" t="s">
+      <c r="O17" s="19"/>
+      <c r="P17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="23">
         <v>7</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="37"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="21">
         <v>3</v>
       </c>
-      <c r="M18" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="25">
+      <c r="M18" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="37" t="s">
+      <c r="O18" s="19"/>
+      <c r="P18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="11">
         <v>4</v>
       </c>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
     </row>
     <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="10">
@@ -2367,19 +2380,16 @@
         <v>22</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" ref="N19:N35" si="2">M19*L19</f>
+        <f t="shared" ref="N19:N35" si="3">M19*L19</f>
         <v>88</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="11">
         <v>5</v>
       </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
     </row>
     <row r="20" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
@@ -2388,9 +2398,9 @@
       <c r="E20" s="10"/>
       <c r="F20" s="11">
         <f>SUM(F6:F19)</f>
-        <v>8757.5</v>
-      </c>
-      <c r="G20" s="18" t="s">
+        <v>10370.700000000001</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="10"/>
@@ -2407,22 +2417,21 @@
         <v>20</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="P20" s="37" t="s">
+      <c r="P20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="11">
         <v>8</v>
       </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G21" s="17"/>
+      <c r="G21" s="15"/>
       <c r="K21" s="6" t="s">
         <v>14</v>
       </c>
@@ -2430,22 +2439,21 @@
         <v>3</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" ref="M21:M29" si="3">M20-2</f>
+        <f t="shared" ref="M21:M29" si="4">M20-2</f>
         <v>18</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="23">
         <v>7</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K22" s="6" t="s">
@@ -2455,23 +2463,22 @@
         <v>3</v>
       </c>
       <c r="M22" s="11">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="N22" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="P22" s="51" t="s">
+      <c r="P22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="29">
         <f>SUM(Q6:Q21)</f>
         <v>247</v>
       </c>
-      <c r="R22" s="39"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K23" s="6" t="s">
@@ -2481,23 +2488,22 @@
         <v>3</v>
       </c>
       <c r="M23" s="11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N23" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="10">
         <f>Q22 + Q22 * 0.075</f>
         <v>265.52499999999998</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K24" s="6" t="s">
@@ -2507,16 +2513,15 @@
         <v>2</v>
       </c>
       <c r="M24" s="11">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N24" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K25" s="6" t="s">
@@ -2526,16 +2531,15 @@
         <v>1</v>
       </c>
       <c r="M25" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="11">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N25" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K26" s="6" t="s">
@@ -2545,18 +2549,15 @@
         <v>2</v>
       </c>
       <c r="M26" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N26" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K27" s="6" t="s">
@@ -2566,18 +2567,15 @@
         <v>2</v>
       </c>
       <c r="M27" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N27" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K28" s="6" t="s">
@@ -2587,33 +2585,31 @@
         <v>2</v>
       </c>
       <c r="M28" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N28" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N28" s="11">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="39"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="21">
         <v>3</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="23">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N29" s="25">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R29" s="39"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K30" s="6" t="s">
@@ -2622,14 +2618,13 @@
       <c r="L30" s="10">
         <v>11</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="26">
         <v>6</v>
       </c>
       <c r="N30" s="10">
         <f>L30*M30</f>
         <v>66</v>
       </c>
-      <c r="R30" s="39"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K31" s="6" t="s">
@@ -2643,54 +2638,46 @@
         <v>4</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="21">
         <v>11</v>
       </c>
-      <c r="M32" s="24">
-        <f t="shared" ref="M32:M35" si="4">M31-2</f>
-        <v>2</v>
-      </c>
-      <c r="N32" s="23">
-        <f t="shared" si="2"/>
+      <c r="M32" s="22">
+        <f t="shared" ref="M32:M35" si="5">M31-2</f>
+        <v>2</v>
+      </c>
+      <c r="N32" s="21">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-    </row>
-    <row r="33" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="26">
         <v>8</v>
       </c>
       <c r="M33" s="10">
         <v>6</v>
       </c>
       <c r="N33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-    </row>
-    <row r="34" spans="11:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K34" s="6" t="s">
         <v>16</v>
       </c>
@@ -2698,43 +2685,35 @@
         <v>6</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-    </row>
-    <row r="35" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="29" t="s">
+    </row>
+    <row r="35" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="28">
         <v>9</v>
       </c>
-      <c r="M35" s="31">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N35" s="32">
-        <f t="shared" si="2"/>
+      <c r="M35" s="29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N35" s="30">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-    </row>
-    <row r="36" spans="11:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="31">
         <v>7</v>
       </c>
       <c r="M36" s="10">
@@ -2744,12 +2723,8 @@
         <f>L36*M36*3+30</f>
         <v>576</v>
       </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-    </row>
-    <row r="37" spans="11:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K37" s="6" t="s">
         <v>17</v>
       </c>
@@ -2760,11 +2735,11 @@
         <v>24</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" ref="N37:N67" si="5">L37*M37*3+30</f>
+        <f t="shared" ref="N37:N67" si="6">L37*M37*3+30</f>
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K38" s="6" t="s">
         <v>17</v>
       </c>
@@ -2776,11 +2751,11 @@
         <v>22</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K39" s="6" t="s">
         <v>17</v>
       </c>
@@ -2788,15 +2763,15 @@
         <v>3</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" ref="M39:M48" si="6">M38-2</f>
+        <f t="shared" ref="M39:M48" si="7">M38-2</f>
         <v>20</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K40" s="6" t="s">
         <v>17</v>
       </c>
@@ -2804,15 +2779,15 @@
         <v>2</v>
       </c>
       <c r="M40" s="10">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="N40" s="11">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" si="5"/>
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K41" s="6" t="s">
         <v>17</v>
       </c>
@@ -2820,15 +2795,15 @@
         <v>2</v>
       </c>
       <c r="M41" s="10">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="N41" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="5"/>
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K42" s="6" t="s">
         <v>17</v>
       </c>
@@ -2836,15 +2811,15 @@
         <v>2</v>
       </c>
       <c r="M42" s="10">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="N42" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="N42" s="11">
-        <f t="shared" si="5"/>
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K43" s="6" t="s">
         <v>17</v>
       </c>
@@ -2852,15 +2827,15 @@
         <v>3</v>
       </c>
       <c r="M43" s="10">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="N43" s="11">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="5"/>
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K44" s="6" t="s">
         <v>17</v>
       </c>
@@ -2868,15 +2843,15 @@
         <v>2</v>
       </c>
       <c r="M44" s="10">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N44" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K45" s="6" t="s">
         <v>17</v>
       </c>
@@ -2884,15 +2859,15 @@
         <v>2</v>
       </c>
       <c r="M45" s="10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="N45" s="11">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="N45" s="11">
-        <f t="shared" si="5"/>
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K46" s="6" t="s">
         <v>17</v>
       </c>
@@ -2900,15 +2875,15 @@
         <v>2</v>
       </c>
       <c r="M46" s="10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="N46" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K47" s="6" t="s">
         <v>17</v>
       </c>
@@ -2916,27 +2891,27 @@
         <v>3</v>
       </c>
       <c r="M47" s="10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N47" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K48" s="26" t="s">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="22">
         <v>3</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N48" s="23">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="N48" s="25">
-        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -2944,14 +2919,14 @@
       <c r="K49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="25">
         <v>5</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M49" s="26">
         <v>26</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -2967,7 +2942,7 @@
         <v>24</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
     </row>
@@ -2979,11 +2954,11 @@
         <v>2</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" ref="M51:M60" si="7">M50-2</f>
+        <f t="shared" ref="M51:M60" si="8">M50-2</f>
         <v>22</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
     </row>
@@ -2995,11 +2970,11 @@
         <v>2</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
@@ -3011,11 +2986,11 @@
         <v>2</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
     </row>
@@ -3027,11 +3002,11 @@
         <v>2</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
     </row>
@@ -3043,11 +3018,11 @@
         <v>2</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
     </row>
@@ -3059,11 +3034,11 @@
         <v>3</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
     </row>
@@ -3075,11 +3050,11 @@
         <v>2</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -3091,11 +3066,11 @@
         <v>2</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
     </row>
@@ -3107,11 +3082,11 @@
         <v>2</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
     </row>
@@ -3123,32 +3098,32 @@
         <v>2</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K61" s="26" t="s">
+      <c r="K61" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="26">
-        <v>2</v>
-      </c>
-      <c r="M61" s="24">
+      <c r="L61" s="24">
+        <v>2</v>
+      </c>
+      <c r="M61" s="22">
         <f>M60-2</f>
         <v>2</v>
       </c>
-      <c r="N61" s="25">
-        <f t="shared" si="5"/>
+      <c r="N61" s="23">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K62" s="27" t="s">
+      <c r="K62" s="25" t="s">
         <v>19</v>
       </c>
       <c r="L62" s="10">
@@ -3158,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
     </row>
@@ -3170,27 +3145,27 @@
         <v>9</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" ref="M63:M67" si="8">M62-2</f>
+        <f t="shared" ref="M63:M67" si="9">M62-2</f>
         <v>4</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
     </row>
     <row r="64" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K64" s="26" t="s">
+      <c r="K64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L64" s="23">
+      <c r="L64" s="21">
         <v>10</v>
       </c>
-      <c r="M64" s="24">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="N64" s="25">
-        <f t="shared" si="5"/>
+      <c r="M64" s="22">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -3205,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
     </row>
@@ -3217,27 +3192,27 @@
         <v>6</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
     </row>
     <row r="67" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K67" s="29" t="s">
+      <c r="K67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="31">
+      <c r="L67" s="29">
         <v>6</v>
       </c>
-      <c r="M67" s="30">
-        <f t="shared" si="8"/>
+      <c r="M67" s="28">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="N67" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
     </row>
@@ -3245,13 +3220,13 @@
       <c r="K68" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L68" s="33">
+      <c r="L68" s="31">
         <v>1</v>
       </c>
       <c r="M68" s="10">
         <v>26</v>
       </c>
-      <c r="N68" s="34">
+      <c r="N68" s="32">
         <f>L68*M68 + 15</f>
         <v>41</v>
       </c>
@@ -3268,7 +3243,7 @@
         <v>24</v>
       </c>
       <c r="N69" s="11">
-        <f t="shared" ref="N69:N94" si="9">L69*M69 + 15</f>
+        <f t="shared" ref="N69:N94" si="10">L69*M69 + 15</f>
         <v>63</v>
       </c>
     </row>
@@ -3280,11 +3255,11 @@
         <v>2</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" ref="M70:M79" si="10">M69-2</f>
+        <f t="shared" ref="M70:M79" si="11">M69-2</f>
         <v>22</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
     </row>
@@ -3296,11 +3271,11 @@
         <v>3</v>
       </c>
       <c r="M71" s="10">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="N71" s="11">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="N71" s="11">
-        <f t="shared" si="9"/>
         <v>75</v>
       </c>
     </row>
@@ -3312,11 +3287,11 @@
         <v>2</v>
       </c>
       <c r="M72" s="10">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="N72" s="11">
         <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="N72" s="11">
-        <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
@@ -3328,11 +3303,11 @@
         <v>2</v>
       </c>
       <c r="M73" s="10">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="N73" s="11">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="N73" s="11">
-        <f t="shared" si="9"/>
         <v>47</v>
       </c>
     </row>
@@ -3344,11 +3319,11 @@
         <v>2</v>
       </c>
       <c r="M74" s="10">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="N74" s="11">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="N74" s="11">
-        <f t="shared" si="9"/>
         <v>43</v>
       </c>
     </row>
@@ -3360,11 +3335,11 @@
         <v>2</v>
       </c>
       <c r="M75" s="10">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N75" s="11">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N75" s="11">
-        <f t="shared" si="9"/>
         <v>39</v>
       </c>
     </row>
@@ -3380,7 +3355,7 @@
         <v>10</v>
       </c>
       <c r="N76" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
@@ -3392,11 +3367,11 @@
         <v>2</v>
       </c>
       <c r="M77" s="10">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="N77" s="11">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="N77" s="11">
-        <f t="shared" si="9"/>
         <v>31</v>
       </c>
     </row>
@@ -3408,11 +3383,11 @@
         <v>3</v>
       </c>
       <c r="M78" s="10">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="N78" s="11">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="N78" s="11">
-        <f t="shared" si="9"/>
         <v>33</v>
       </c>
     </row>
@@ -3424,27 +3399,27 @@
         <v>3</v>
       </c>
       <c r="M79" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N79" s="11">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="N79" s="11">
-        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K80" s="23" t="s">
+      <c r="K80" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L80" s="24">
+      <c r="L80" s="22">
         <v>3</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M80" s="21">
         <f>M79-2</f>
         <v>2</v>
       </c>
-      <c r="N80" s="25">
-        <f t="shared" si="9"/>
+      <c r="N80" s="23">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
@@ -3459,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="N81" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
     </row>
@@ -3475,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="N82" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
     </row>
@@ -3487,11 +3462,11 @@
         <v>3</v>
       </c>
       <c r="M83" s="10">
-        <f t="shared" ref="M83:M87" si="11">M82-2</f>
+        <f t="shared" ref="M83:M87" si="12">M82-2</f>
         <v>10</v>
       </c>
       <c r="N83" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
     </row>
@@ -3503,11 +3478,11 @@
         <v>5</v>
       </c>
       <c r="M84" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N84" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
     </row>
@@ -3519,11 +3494,11 @@
         <v>1</v>
       </c>
       <c r="M85" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="N85" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
@@ -3535,11 +3510,11 @@
         <v>2</v>
       </c>
       <c r="M86" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="N86" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
@@ -3551,11 +3526,11 @@
         <v>1</v>
       </c>
       <c r="M87" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="N87" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
@@ -3570,22 +3545,22 @@
         <v>4</v>
       </c>
       <c r="N88" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K89" s="23" t="s">
+      <c r="K89" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L89" s="24">
-        <v>2</v>
-      </c>
-      <c r="M89" s="23">
-        <v>2</v>
-      </c>
-      <c r="N89" s="25">
-        <f t="shared" si="9"/>
+      <c r="L89" s="22">
+        <v>2</v>
+      </c>
+      <c r="M89" s="21">
+        <v>2</v>
+      </c>
+      <c r="N89" s="23">
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
@@ -3600,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="N90" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
     </row>
@@ -3615,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="N91" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
     </row>
@@ -3630,7 +3605,7 @@
         <v>6</v>
       </c>
       <c r="N92" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
     </row>
@@ -3645,37 +3620,37 @@
         <v>14</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K94" s="31" t="s">
+      <c r="K94" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L94" s="30">
+      <c r="L94" s="28">
         <v>5</v>
       </c>
-      <c r="M94" s="31">
+      <c r="M94" s="29">
         <v>22</v>
       </c>
-      <c r="N94" s="32">
-        <f t="shared" si="9"/>
+      <c r="N94" s="30">
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
     </row>
     <row r="95" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K95" s="15" t="s">
+      <c r="K95" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L95" s="15">
+      <c r="L95" s="14">
         <f>SUM(N6:N94)</f>
         <v>6767</v>
       </c>
-      <c r="M95" s="15" t="s">
+      <c r="M95" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N95" s="35">
+      <c r="N95" s="33">
         <f>L95+L95*0.075</f>
         <v>7274.5249999999996</v>
       </c>
@@ -3733,8 +3708,9 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{FA5862E7-EEED-4C58-B904-536457355E87}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{02BCA972-DCD1-4653-99E4-0BC9A292F8EC}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{89284C20-D4F2-40A4-839A-24BC48BF5F08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFF91E-A26B-4063-AFCD-707C7F608184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{D3AFF91E-A26B-4063-AFCD-707C7F608184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60ADD327-47F9-43CE-87A0-E0F5D95296CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,57 +37,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="57">
   <si>
     <t>Einkaufsliste</t>
   </si>
   <si>
+    <t>Kabelkanäle</t>
+  </si>
+  <si>
+    <t>Kabeltrassen</t>
+  </si>
+  <si>
+    <t>BASIS EDITION: Aveerage WLAN minimum LAN</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>Produktname</t>
   </si>
   <si>
     <t>Stk. Zahl</t>
   </si>
   <si>
-    <t>€</t>
+    <t>Preis/Stück (in €)</t>
   </si>
   <si>
     <t>Preis (in €)</t>
   </si>
   <si>
+    <t>Etage</t>
+  </si>
+  <si>
+    <t>Länge (in m)</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Gesamt (ohne Reserve, in m)</t>
+  </si>
+  <si>
+    <t>main Switch</t>
+  </si>
+  <si>
+    <t>EG (linke Seite)</t>
+  </si>
+  <si>
+    <t>EG (Zwischendecke WC)</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Base Switch</t>
+  </si>
+  <si>
+    <t>EG (Zwischendecke links)</t>
+  </si>
+  <si>
+    <t>Patchpanel</t>
+  </si>
+  <si>
+    <t>EG (Zwischendecke rechts)</t>
+  </si>
+  <si>
+    <t>EG (rechte Seite)</t>
+  </si>
+  <si>
+    <t>1.-3. (Zwischendecke)</t>
+  </si>
+  <si>
+    <t>accsess Point</t>
+  </si>
+  <si>
+    <t>DG (Zwischendecke links)</t>
+  </si>
+  <si>
+    <t>innk</t>
+  </si>
+  <si>
+    <t>Wlan controller</t>
+  </si>
+  <si>
+    <t>1.Stockwerk - 3. Stockwerk</t>
+  </si>
+  <si>
+    <t>DG (Zwischendecke rechts)</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>Patchkabel mittel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt: </t>
+  </si>
+  <si>
+    <t>patchkabel lang</t>
+  </si>
+  <si>
+    <t>Gesamt mit Reserve (7.5%):</t>
+  </si>
+  <si>
+    <t>patchkabel kurz</t>
+  </si>
+  <si>
+    <t>DG (linke Seite)</t>
+  </si>
+  <si>
+    <t>KabelKanal</t>
+  </si>
+  <si>
+    <t>Netzwerkschrank</t>
+  </si>
+  <si>
+    <t>Cat.6 Netzwerkkabel, S/FTP, grau, 305 m</t>
+  </si>
+  <si>
+    <t>DG (rechte Seite)</t>
+  </si>
+  <si>
     <t>Unterputz RJ45-Dose, 2-fach, Cat.6</t>
   </si>
   <si>
-    <t>Preis/Stück (in €)</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.at/at/de/shop/produkt/rj45-datendose_cat_6_rechts_links_unterputz_2x_rj45-412714</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Länge (in m)</t>
-  </si>
-  <si>
-    <t>Etage</t>
-  </si>
-  <si>
-    <t>Gesamt (ohne Reserve, in m)</t>
-  </si>
-  <si>
-    <t>EG (linke Seite)</t>
-  </si>
-  <si>
-    <t>EG (rechte Seite)</t>
-  </si>
-  <si>
-    <t>EG (Zwischendecke links)</t>
-  </si>
-  <si>
-    <t>EG (Zwischendecke rechts)</t>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>UPGRADED EDITION: Cutting edge speed LAN Average WLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Link core switch </t>
+  </si>
+  <si>
+    <t>D-Link lichtwellenleiteradapter</t>
+  </si>
+  <si>
+    <t>D-Link Etagen switch</t>
+  </si>
+  <si>
+    <t>access Point</t>
+  </si>
+  <si>
+    <t>Kabelkanal</t>
+  </si>
+  <si>
+    <t>cat6 a kabeltrommel(300m)</t>
   </si>
   <si>
     <t>1-3 (linke Seite)</t>
@@ -111,52 +207,7 @@
     <t>DG(Zwischendecke)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gesamt: </t>
-  </si>
-  <si>
     <t>Gesamt (mit 7.5% Reserve):</t>
-  </si>
-  <si>
-    <t>Kabelkanäle</t>
-  </si>
-  <si>
-    <t>EG (Zwischendecke WC)</t>
-  </si>
-  <si>
-    <t>1.Stockwerk - 3. Stockwerk</t>
-  </si>
-  <si>
-    <t>1.-3. (Zwischendecke)</t>
-  </si>
-  <si>
-    <t>DG (linke Seite)</t>
-  </si>
-  <si>
-    <t>DG (rechte Seite)</t>
-  </si>
-  <si>
-    <t>DG (Zwischendecke links)</t>
-  </si>
-  <si>
-    <t>DG (Zwischendecke rechts)</t>
-  </si>
-  <si>
-    <t>Gesamt mit Reserve (7.5%):</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.at/at/de/shop/produkt/cat_6_netzwerkkabel_s_ftp_grau_305_m-350271</t>
-  </si>
-  <si>
-    <t>Cat.6 Netzwerkkabel, S/FTP, grau, 305 m</t>
-  </si>
-  <si>
-    <t>Kabeltrassen</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.at/at/de/shop/produkt/wlan_access_point_2_4_5_ghz_2973_mbit_s-358906</t>
-  </si>
-  <si>
-    <t>Alta Labs Access Point</t>
   </si>
 </sst>
 </file>
@@ -167,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,7 +550,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -602,11 +653,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,7 +678,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1718,32 +1772,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="90.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:20" ht="32.450000000000003">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,81 +1805,86 @@
       <c r="L2" s="18"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="2:20" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" ht="22.15">
       <c r="K3" s="34"/>
       <c r="P3" s="34" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="19.5">
       <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="20"/>
       <c r="P5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="15">
       <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>170</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
       </c>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>1341.42</v>
       </c>
       <c r="F6" s="11">
         <f>PRODUCT(D6,E6)</f>
-        <v>1700</v>
+        <v>1341.42</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -1839,41 +1898,41 @@
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="10">
         <v>7</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="T6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="15">
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10">
-        <v>282.3</v>
+        <v>432.65</v>
       </c>
       <c r="F7" s="11">
         <f>PRODUCT(D7,E7)</f>
-        <v>7057.5</v>
+        <v>2163.25</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" s="6">
         <v>3</v>
@@ -1888,48 +1947,47 @@
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="11">
         <v>11</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T7" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="15">
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
-        <v>161.32</v>
+        <v>95.75</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" ref="F8:F19" si="1">PRODUCT(D8,E8)</f>
-        <v>1613.1999999999998</v>
-      </c>
-      <c r="G8" s="10"/>
+        <f>PRODUCT(D8,E8)</f>
+        <v>478.75</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" s="6">
         <v>2</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" ref="M8:M18" si="2">M7 - 2</f>
+        <f t="shared" ref="M8:M18" si="1">M7 - 2</f>
         <v>22</v>
       </c>
       <c r="N8" s="11">
@@ -1938,40 +1996,36 @@
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="21">
         <v>7</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T8" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+    <row r="9" spans="2:20" ht="15">
+      <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="6">
         <v>2</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N9" s="11">
@@ -1980,41 +2034,37 @@
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="10">
         <v>7</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="37" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="T9" s="38">
         <f>35*3</f>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+    <row r="10" spans="2:20" ht="15">
+      <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="N10" s="11">
@@ -2023,40 +2073,47 @@
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="10">
         <v>11</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="T10" s="23">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+    <row r="11" spans="2:20" ht="15">
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>238.22</v>
+      </c>
       <c r="F11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
+        <f>PRODUCT(D11,E11)</f>
+        <v>2382.1999999999998</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N11" s="11">
@@ -2065,40 +2122,48 @@
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="21">
         <v>5</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="T11" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+    <row r="12" spans="2:20" ht="15">
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>191.34</v>
+      </c>
       <c r="F12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>PRODUCT(D12,E12)</f>
+        <v>191.34</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="N12" s="11">
@@ -2107,7 +2172,7 @@
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="10">
         <f>7*6</f>
@@ -2115,33 +2180,41 @@
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T12" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+    <row r="13" spans="2:20" ht="15">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6.69</v>
+      </c>
       <c r="F13" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>PRODUCT(D13,E13)</f>
+        <v>334.5</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" s="6">
         <v>2</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N13" s="11">
@@ -2150,41 +2223,49 @@
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="10">
         <f>11*6</f>
         <v>66</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T13" s="40">
         <f>SUM(T6:T12)</f>
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+    <row r="14" spans="2:20" ht="15">
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F14" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="F14:F17" si="2">PRODUCT(D14,E14)</f>
+        <v>204.99999999999997</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="6">
         <v>2</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N14" s="11">
@@ -2193,7 +2274,7 @@
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="23">
         <f>7*6</f>
@@ -2201,34 +2282,42 @@
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T14" s="10">
         <f>T13 + T13 * 0.075</f>
         <v>360.125</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+    <row r="15" spans="2:20" ht="15">
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6">
+        <v>400</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="F15" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>PRODUCT(D15,E15)</f>
+        <v>463.99999999999994</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N15" s="11">
@@ -2237,7 +2326,7 @@
       </c>
       <c r="O15" s="19"/>
       <c r="P15" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="11">
         <v>7</v>
@@ -2246,27 +2335,35 @@
       <c r="S15" s="19"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+    <row r="16" spans="2:20" ht="15">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6">
+        <v>110</v>
+      </c>
+      <c r="E16" s="10">
+        <v>25.99</v>
+      </c>
       <c r="F16" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2858.8999999999996</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L16" s="6">
         <v>3</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N16" s="11">
@@ -2275,7 +2372,7 @@
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="11">
         <v>11</v>
@@ -2284,27 +2381,35 @@
       <c r="S16" s="19"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
+    <row r="17" spans="2:20" ht="15">
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>847.01</v>
+      </c>
       <c r="F17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>847.01</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="6">
         <v>3</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N17" s="11">
@@ -2313,7 +2418,7 @@
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="23">
         <v>7</v>
@@ -2322,27 +2427,35 @@
       <c r="S17" s="19"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="10"/>
+    <row r="18" spans="2:20" ht="15">
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10">
+        <v>282.3</v>
+      </c>
       <c r="F18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>PRODUCT(D18,E18)</f>
+        <v>7057.5</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L18" s="21">
         <v>3</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N18" s="23">
@@ -2351,27 +2464,35 @@
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+    <row r="19" spans="2:20" ht="15">
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9">
+        <v>170</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10</v>
+      </c>
       <c r="F19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>PRODUCT(D19,E19)</f>
+        <v>1700</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="25" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L19" s="10">
         <v>4</v>
@@ -2385,29 +2506,29 @@
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="15">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11">
         <f>SUM(F6:F19)</f>
-        <v>10370.700000000001</v>
+        <v>20023.870000000003</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L20" s="10">
         <v>3</v>
@@ -2422,7 +2543,7 @@
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="11">
         <v>8</v>
@@ -2430,10 +2551,10 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20">
       <c r="G21" s="15"/>
       <c r="K21" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L21" s="10">
         <v>3</v>
@@ -2447,7 +2568,7 @@
         <v>54</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="23">
         <v>7</v>
@@ -2455,9 +2576,12 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" ht="15">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
       <c r="K22" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L22" s="10">
         <v>3</v>
@@ -2471,7 +2595,7 @@
         <v>48</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="29">
         <f>SUM(Q6:Q21)</f>
@@ -2480,9 +2604,24 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="19.5">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K23" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L23" s="10">
         <v>3</v>
@@ -2496,7 +2635,7 @@
         <v>42</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="10">
         <f>Q22 + Q22 * 0.075</f>
@@ -2505,9 +2644,25 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="15">
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1885.85</v>
+      </c>
+      <c r="F24" s="11">
+        <f>PRODUCT(D24,E24)</f>
+        <v>1885.85</v>
+      </c>
       <c r="K24" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L24" s="10">
         <v>2</v>
@@ -2523,9 +2678,25 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="15">
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10">
+        <v>322.64</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" ref="F25:F37" si="5">PRODUCT(D25,E25)</f>
+        <v>3226.3999999999996</v>
+      </c>
       <c r="K25" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L25" s="10">
         <v>1</v>
@@ -2541,9 +2712,25 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="15">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2571.5300000000002</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="5"/>
+        <v>12857.650000000001</v>
+      </c>
       <c r="K26" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L26" s="10">
         <v>2</v>
@@ -2559,9 +2746,25 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="15">
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="10">
+        <v>383.14</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="5"/>
+        <v>1915.6999999999998</v>
+      </c>
       <c r="K27" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L27" s="10">
         <v>2</v>
@@ -2577,9 +2780,17 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L28" s="10">
         <v>2</v>
@@ -2595,9 +2806,25 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="15">
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10">
+        <v>238.22</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="5"/>
+        <v>2382.1999999999998</v>
+      </c>
       <c r="K29" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L29" s="21">
         <v>3</v>
@@ -2611,9 +2838,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="15">
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>191.34</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="5"/>
+        <v>191.34</v>
+      </c>
       <c r="K30" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L30" s="10">
         <v>11</v>
@@ -2626,9 +2869,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" ht="15">
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6">
+        <v>50</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
       <c r="K31" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L31" s="10">
         <v>10</v>
@@ -2644,15 +2903,31 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" ht="15">
+      <c r="B32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="5"/>
+        <v>204.99999999999997</v>
+      </c>
       <c r="K32" s="24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L32" s="21">
         <v>11</v>
       </c>
       <c r="M32" s="22">
-        <f t="shared" ref="M32:M35" si="5">M31-2</f>
+        <f t="shared" ref="M32:M35" si="6">M31-2</f>
         <v>2</v>
       </c>
       <c r="N32" s="21">
@@ -2662,9 +2937,25 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="15">
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="6">
+        <v>400</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="5"/>
+        <v>463.99999999999994</v>
+      </c>
       <c r="K33" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L33" s="26">
         <v>8</v>
@@ -2677,15 +2968,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" ht="15">
+      <c r="B34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="6">
+        <v>110</v>
+      </c>
+      <c r="E34" s="10">
+        <v>25.99</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="5"/>
+        <v>2858.8999999999996</v>
+      </c>
       <c r="K34" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L34" s="12">
         <v>6</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N34" s="11">
@@ -2693,15 +3000,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="15">
+      <c r="B35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>847.1</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="5"/>
+        <v>847.1</v>
+      </c>
       <c r="K35" s="27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L35" s="28">
         <v>9</v>
       </c>
       <c r="M35" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N35" s="30">
@@ -2709,9 +3032,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="15">
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="6">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10">
+        <v>323.72000000000003</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="5"/>
+        <v>8093.0000000000009</v>
+      </c>
       <c r="K36" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L36" s="31">
         <v>7</v>
@@ -2724,9 +3063,25 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="15">
+      <c r="B37" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="13">
+        <v>170</v>
+      </c>
+      <c r="E37" s="14">
+        <v>10</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="5"/>
+        <v>1700</v>
+      </c>
       <c r="K37" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L37" s="12">
         <v>2</v>
@@ -2735,13 +3090,20 @@
         <v>24</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" ref="N37:N67" si="6">L37*M37*3+30</f>
+        <f t="shared" ref="N37:N67" si="7">L37*M37*3+30</f>
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="15">
+      <c r="F38">
+        <f>SUM(F24:F37)</f>
+        <v>36675.14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
       <c r="K38" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L38" s="12">
         <v>2</v>
@@ -2751,173 +3113,173 @@
         <v>22</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14">
       <c r="K39" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L39" s="12">
         <v>3</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" ref="M39:M48" si="7">M38-2</f>
+        <f t="shared" ref="M39:M48" si="8">M38-2</f>
         <v>20</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14">
       <c r="K40" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L40" s="12">
         <v>2</v>
       </c>
       <c r="M40" s="10">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="N40" s="11">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" si="6"/>
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14">
       <c r="K41" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L41" s="12">
         <v>2</v>
       </c>
       <c r="M41" s="10">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="N41" s="11">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="6"/>
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14">
       <c r="K42" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L42" s="12">
         <v>2</v>
       </c>
       <c r="M42" s="10">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="N42" s="11">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="N42" s="11">
-        <f t="shared" si="6"/>
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14">
       <c r="K43" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L43" s="12">
         <v>3</v>
       </c>
       <c r="M43" s="10">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="N43" s="11">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="6"/>
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14">
       <c r="K44" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L44" s="12">
         <v>2</v>
       </c>
       <c r="M44" s="10">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N44" s="11">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14">
       <c r="K45" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L45" s="12">
         <v>2</v>
       </c>
       <c r="M45" s="10">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="N45" s="11">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="N45" s="11">
-        <f t="shared" si="6"/>
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14">
       <c r="K46" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L46" s="12">
         <v>2</v>
       </c>
       <c r="M46" s="10">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="N46" s="11">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="6"/>
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14">
       <c r="K47" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L47" s="12">
         <v>3</v>
       </c>
       <c r="M47" s="10">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="N47" s="11">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="6"/>
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14">
       <c r="K48" s="24" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L48" s="22">
         <v>3</v>
       </c>
       <c r="M48" s="21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N48" s="23">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N48" s="23">
-        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:14">
       <c r="K49" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L49" s="25">
         <v>5</v>
@@ -2926,13 +3288,13 @@
         <v>26</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="11:14">
       <c r="K50" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L50" s="6">
         <v>2</v>
@@ -2942,173 +3304,173 @@
         <v>24</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="11:14">
       <c r="K51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2</v>
+      </c>
+      <c r="M51" s="12">
+        <f t="shared" ref="M51:M60" si="9">M50-2</f>
+        <v>22</v>
+      </c>
+      <c r="N51" s="11">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="11:14">
+      <c r="K52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="6">
+        <v>2</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="11:14">
+      <c r="K53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="6">
+        <v>2</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="L51" s="6">
-        <v>2</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" ref="M51:M60" si="8">M50-2</f>
-        <v>22</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="6"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="6">
-        <v>2</v>
-      </c>
-      <c r="M52" s="12">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="N52" s="11">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="6">
-        <v>2</v>
-      </c>
-      <c r="M53" s="12">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
       <c r="N53" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="11:14">
       <c r="K54" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L54" s="6">
         <v>2</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="11:14">
       <c r="K55" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L55" s="6">
         <v>2</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="11:14">
       <c r="K56" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L56" s="6">
         <v>3</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="11:14">
       <c r="K57" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L57" s="6">
         <v>2</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="11:14">
       <c r="K58" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L58" s="6">
         <v>2</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="11:14">
       <c r="K59" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L59" s="6">
         <v>2</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="11:14">
       <c r="K60" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L60" s="6">
         <v>2</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="11:14">
       <c r="K61" s="24" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L61" s="24">
         <v>2</v>
@@ -3118,13 +3480,13 @@
         <v>2</v>
       </c>
       <c r="N61" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="11:14">
       <c r="K62" s="25" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L62" s="10">
         <v>13</v>
@@ -3133,45 +3495,45 @@
         <v>6</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="11:14">
       <c r="K63" s="6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L63" s="10">
         <v>9</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" ref="M63:M67" si="9">M62-2</f>
+        <f t="shared" ref="M63:M67" si="10">M62-2</f>
         <v>4</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="11:14">
       <c r="K64" s="24" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L64" s="21">
         <v>10</v>
       </c>
       <c r="M64" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N64" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="11:14">
       <c r="K65" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L65" s="10">
         <v>10</v>
@@ -3180,45 +3542,45 @@
         <v>6</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="11:14">
       <c r="K66" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L66" s="10">
         <v>6</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="11:14" ht="15" thickBot="1">
       <c r="K67" s="27" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L67" s="29">
         <v>6</v>
       </c>
       <c r="M67" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N67" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="11:14">
       <c r="K68" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L68" s="31">
         <v>1</v>
@@ -3231,9 +3593,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="11:14">
       <c r="K69" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L69" s="12">
         <v>2</v>
@@ -3243,109 +3605,109 @@
         <v>24</v>
       </c>
       <c r="N69" s="11">
-        <f t="shared" ref="N69:N94" si="10">L69*M69 + 15</f>
+        <f t="shared" ref="N69:N94" si="11">L69*M69 + 15</f>
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="11:14">
       <c r="K70" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L70" s="12">
         <v>2</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" ref="M70:M79" si="11">M69-2</f>
+        <f t="shared" ref="M70:M79" si="12">M69-2</f>
         <v>22</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="11:14">
       <c r="K71" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L71" s="12">
         <v>3</v>
       </c>
       <c r="M71" s="10">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="N71" s="11">
         <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="N71" s="11">
-        <f t="shared" si="10"/>
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="11:14">
       <c r="K72" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L72" s="12">
         <v>2</v>
       </c>
       <c r="M72" s="10">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="N72" s="11">
         <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="N72" s="11">
-        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="11:14">
       <c r="K73" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L73" s="12">
         <v>2</v>
       </c>
       <c r="M73" s="10">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="N73" s="11">
         <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="N73" s="11">
-        <f t="shared" si="10"/>
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="11:14">
       <c r="K74" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L74" s="12">
         <v>2</v>
       </c>
       <c r="M74" s="10">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="N74" s="11">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="N74" s="11">
-        <f t="shared" si="10"/>
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="11:14">
       <c r="K75" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L75" s="12">
         <v>2</v>
       </c>
       <c r="M75" s="10">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="N75" s="11">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="N75" s="11">
-        <f t="shared" si="10"/>
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="11:14">
       <c r="K76" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L76" s="12">
         <v>2</v>
@@ -3355,61 +3717,61 @@
         <v>10</v>
       </c>
       <c r="N76" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="11:14">
       <c r="K77" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L77" s="12">
         <v>2</v>
       </c>
       <c r="M77" s="10">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N77" s="11">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="N77" s="11">
-        <f t="shared" si="10"/>
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="11:14">
       <c r="K78" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L78" s="12">
         <v>3</v>
       </c>
       <c r="M78" s="10">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N78" s="11">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="N78" s="11">
-        <f t="shared" si="10"/>
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="11:14">
       <c r="K79" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L79" s="12">
         <v>3</v>
       </c>
       <c r="M79" s="10">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="N79" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="N79" s="11">
-        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="11:14">
       <c r="K80" s="21" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L80" s="22">
         <v>3</v>
@@ -3419,13 +3781,13 @@
         <v>2</v>
       </c>
       <c r="N80" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:14">
       <c r="K81" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L81" s="12">
         <v>3</v>
@@ -3434,13 +3796,13 @@
         <v>14</v>
       </c>
       <c r="N81" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="11:14">
       <c r="K82" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L82" s="12">
         <v>2</v>
@@ -3450,93 +3812,93 @@
         <v>12</v>
       </c>
       <c r="N82" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:14">
       <c r="K83" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L83" s="12">
         <v>3</v>
       </c>
       <c r="M83" s="10">
-        <f t="shared" ref="M83:M87" si="12">M82-2</f>
+        <f t="shared" ref="M83:M87" si="13">M82-2</f>
         <v>10</v>
       </c>
       <c r="N83" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="11:14">
       <c r="K84" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L84" s="12">
         <v>5</v>
       </c>
       <c r="M84" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N84" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="11:14">
       <c r="K85" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L85" s="12">
         <v>1</v>
       </c>
       <c r="M85" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N85" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:14">
       <c r="K86" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L86" s="12">
         <v>2</v>
       </c>
       <c r="M86" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N86" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="11:14">
       <c r="K87" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L87" s="12">
         <v>1</v>
       </c>
       <c r="M87" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="N87" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="11:14">
       <c r="K88" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L88" s="12">
         <v>2</v>
@@ -3545,13 +3907,13 @@
         <v>4</v>
       </c>
       <c r="N88" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="11:14">
       <c r="K89" s="21" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L89" s="22">
         <v>2</v>
@@ -3560,13 +3922,13 @@
         <v>2</v>
       </c>
       <c r="N89" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="11:14">
       <c r="K90" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L90" s="12">
         <v>33</v>
@@ -3575,13 +3937,13 @@
         <v>2</v>
       </c>
       <c r="N90" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="11:14">
       <c r="K91" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L91" s="12">
         <v>8</v>
@@ -3590,13 +3952,13 @@
         <v>4</v>
       </c>
       <c r="N91" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="11:14">
       <c r="K92" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L92" s="12">
         <v>5</v>
@@ -3605,13 +3967,13 @@
         <v>6</v>
       </c>
       <c r="N92" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="11:14">
       <c r="K93" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L93" s="12">
         <v>4</v>
@@ -3620,13 +3982,13 @@
         <v>14</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="11:14" ht="15" thickBot="1">
       <c r="K94" s="29" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L94" s="28">
         <v>5</v>
@@ -3635,69 +3997,69 @@
         <v>22</v>
       </c>
       <c r="N94" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="11:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="11:14" ht="15" thickBot="1">
       <c r="K95" s="14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L95" s="14">
         <f>SUM(N6:N94)</f>
         <v>6767</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N95" s="33">
         <f>L95+L95*0.075</f>
         <v>7274.5249999999996</v>
       </c>
     </row>
-    <row r="96" spans="11:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="11:14" ht="15" thickTop="1">
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="11:14">
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="11:14">
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="11:14">
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:14">
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:14">
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:14">
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:14">
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
@@ -3706,11 +4068,33 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{FA5862E7-EEED-4C58-B904-536457355E87}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{02BCA972-DCD1-4653-99E4-0BC9A292F8EC}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{89284C20-D4F2-40A4-839A-24BC48BF5F08}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{FA5862E7-EEED-4C58-B904-536457355E87}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{02BCA972-DCD1-4653-99E4-0BC9A292F8EC}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{89284C20-D4F2-40A4-839A-24BC48BF5F08}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.reichelt.at/at/de/shop/produkt/switch_48-port_gigabit_ethernet_managebar-333530" xr:uid="{DECBA925-9FC7-4EB2-B5BA-390858254936}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.reichelt.at/at/de/shop/produkt/switch_30-port_gigabit_ethernet_poe_sfp_-366824?PROVID=2807&amp;utm_source=chatgpt.com" xr:uid="{15E7CD2F-03A4-47BC-A0C3-77A96B8F8EF8}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{F4CAD89B-DF10-48F3-AAC2-2DDEF007C97C}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{C13A788E-7EAE-49C3-9909-FE28F8385183}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{8D950966-64D1-44AA-8ABA-D7E03EA39300}"/>
+    <hyperlink ref="B37" r:id="rId9" xr:uid="{3B205915-4CC2-4C74-9D53-1FF690554968}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{697622A8-26F6-432B-8C28-612432415508}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{33B1566B-CB85-4EDA-95D0-69B37FF97FCA}"/>
+    <hyperlink ref="B30" r:id="rId12" display="https://www.reichelt.at/at/de/shop/produkt/cat_6_netzwerkkabel_s_ftp_grau_305_m-350271" xr:uid="{0ABF9820-B3DA-47AA-B4D9-292FC5E5E7A6}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{09D3445B-7B07-4A3F-A6F7-AE1099DEC5AF}"/>
+    <hyperlink ref="B8" r:id="rId14" location="closemodal" xr:uid="{1D31FB0C-983B-4EE1-B1D0-E532CD693A36}"/>
+    <hyperlink ref="B27" r:id="rId15" location="closemodal" xr:uid="{4614B821-B99A-41D2-9039-D1B33941FD2D}"/>
+    <hyperlink ref="B35" r:id="rId16" xr:uid="{52F7EED1-28F1-4671-B786-AEB543E8574E}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{C82F23BC-C1A5-4BD7-8588-7FA3137B087E}"/>
+    <hyperlink ref="B16" r:id="rId18" display="https://www.conrad.at/de/p/obo-bettermann-6191207-kabelkanal-l-x-b-x-h-2000-x-90-x-60-mm-1-st-reinweiss-1960090.html?experience=b2c&amp;insert=7M&amp;utm_campaign=pvgl&amp;utm_content=dl_article&amp;utm_medium=cpc&amp;utm_source=geizhals" xr:uid="{82D54D48-3925-474A-AF14-6AA44F18E148}"/>
+    <hyperlink ref="B34" r:id="rId19" display="https://www.conrad.at/de/p/obo-bettermann-6191207-kabelkanal-l-x-b-x-h-2000-x-90-x-60-mm-1-st-reinweiss-1960090.html?experience=b2c&amp;insert=7M&amp;utm_campaign=pvgl&amp;utm_content=dl_article&amp;utm_medium=cpc&amp;utm_source=geizhals" xr:uid="{E9863532-244C-418E-903E-855E17D356EA}"/>
+    <hyperlink ref="B33" r:id="rId20" display="https://www.reichelt.at/at/de/shop/produkt/patchkabel_cat_6a_s_ftp_pimf_0_15_m_weiss-362953" xr:uid="{0B7CDC44-05B3-43CD-9224-F62F4C2E018D}"/>
+    <hyperlink ref="B32" r:id="rId21" display="https://www.reichelt.at/at/de/shop/produkt/patchkabel_cat_6a_s_ftp_grs_konform_10_gbit_s_500mhz_schwarz_1_0-407024" xr:uid="{366A4E2E-15FB-490F-8431-5BB08A0A520A}"/>
+    <hyperlink ref="B14" r:id="rId22" display="https://www.reichelt.at/at/de/shop/produkt/patchkabel_cat_6a_s_ftp_grs_konform_10_gbit_s_500mhz_schwarz_1_0-407024" xr:uid="{6EED1123-0817-47DB-811E-6826D8717519}"/>
+    <hyperlink ref="B15" r:id="rId23" display="https://www.reichelt.at/at/de/shop/produkt/patchkabel_cat_6a_s_ftp_pimf_0_15_m_weiss-362953" xr:uid="{288785A8-7B76-4B5E-BDFF-6342DAF7B050}"/>
+    <hyperlink ref="B13" r:id="rId24" display="https://www.reichelt.at/at/de/shop/produkt/patchkabel_rj45_cat_6a_s_ftp_0_5_m_grau-196782" xr:uid="{76C2CCB8-93F5-4DE1-ADC4-AB3909CBD12B}"/>
+    <hyperlink ref="B31" r:id="rId25" display="https://www.reichelt.at/at/de/shop/produkt/patchkabel_rj45_cat_6a_s_ftp_0_5_m_grau-196782" xr:uid="{42E18A0D-3739-429B-A471-B0FE65DFC2CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Einkaufsliste.xlsx
+++ b/Einkaufsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Dokumente\Schule\SJ202526\NWT\gruene_wiese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\Schule\NWT\gruene_wiese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{D3AFF91E-A26B-4063-AFCD-707C7F608184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60ADD327-47F9-43CE-87A0-E0F5D95296CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00573D5-2E98-4380-90B8-018E44E40350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
   <si>
     <t>Einkaufsliste</t>
   </si>
@@ -208,6 +208,258 @@
   </si>
   <si>
     <t>Gesamt (mit 7.5% Reserve):</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Empfohlene Arbeiter</t>
+  </si>
+  <si>
+    <t>Stunden (für diese Arbeiterzahl)</t>
+  </si>
+  <si>
+    <t>Baustellenbegehung</t>
+  </si>
+  <si>
+    <t>Überprüfung aller Etagen, Leitungswege, Installationspunkte</t>
+  </si>
+  <si>
+    <t>Kabelwege markieren</t>
+  </si>
+  <si>
+    <t>Markieren der Kabelkanäle, Wanddurchbrüche, Dosenpositionen</t>
+  </si>
+  <si>
+    <t>Materialtransport</t>
+  </si>
+  <si>
+    <t>Transport von Kabeltrommeln, Kanälen, Werkzeug in alle Etagen</t>
+  </si>
+  <si>
+    <t>Arbeitsplatz einrichten</t>
+  </si>
+  <si>
+    <t>Leitern, Licht, Schutzmaterial, Vorbereitung</t>
+  </si>
+  <si>
+    <t>Kabelkanäle EG montieren</t>
+  </si>
+  <si>
+    <t>Kabelkanäle OG/DG montieren</t>
+  </si>
+  <si>
+    <t>Kabelkanal Feinarbeiten</t>
+  </si>
+  <si>
+    <t>Ecken, Übergänge, Abdeckungen montieren</t>
+  </si>
+  <si>
+    <t>Kabeltrassen EG montieren</t>
+  </si>
+  <si>
+    <t>Kabeltrassen 1.–3. OG montieren</t>
+  </si>
+  <si>
+    <t>Kabeltrassen DG montieren</t>
+  </si>
+  <si>
+    <t>Kabeltrassen Feinarbeiten</t>
+  </si>
+  <si>
+    <t>Höhenanpassungen, Übergänge, Spannungsausgleich</t>
+  </si>
+  <si>
+    <t>Kupferkabel vertikal ziehen</t>
+  </si>
+  <si>
+    <t>Ziehen der Hauptstränge EG → 1.–3. OG über Trassen</t>
+  </si>
+  <si>
+    <t>Kupferkabel horizontal ziehen</t>
+  </si>
+  <si>
+    <t>Verteilung innerhalb der Etagen</t>
+  </si>
+  <si>
+    <t>Kupferkabel DG ziehen</t>
+  </si>
+  <si>
+    <t>Vertikal + horizontal im DG</t>
+  </si>
+  <si>
+    <t>Kabelmanagement</t>
+  </si>
+  <si>
+    <t>Bündeln, Fixieren, Klettbänder, Trennung PoE/Daten</t>
+  </si>
+  <si>
+    <t>Beschriftung Kabelenden</t>
+  </si>
+  <si>
+    <t>Beidseitige Label nach Raum/Portplan</t>
+  </si>
+  <si>
+    <t>LWL-Uplinks installieren</t>
+  </si>
+  <si>
+    <t>Fasern einziehen, spleißen/stecken, testen</t>
+  </si>
+  <si>
+    <t>LWL-Adapter + Patching</t>
+  </si>
+  <si>
+    <t>Montage im Rack + Stockwerksswitches</t>
+  </si>
+  <si>
+    <t>Dosen vorbereiten</t>
+  </si>
+  <si>
+    <t>Abdeckungen entfernen, Dosen freilegen</t>
+  </si>
+  <si>
+    <t>RJ45-Dosen montieren</t>
+  </si>
+  <si>
+    <t>RJ45-Keystones auflegen</t>
+  </si>
+  <si>
+    <t>RJ45-Dosen beschriften</t>
+  </si>
+  <si>
+    <t>Portnummern/Rooms</t>
+  </si>
+  <si>
+    <t>Netzwerkschrank montieren</t>
+  </si>
+  <si>
+    <t>Aufstellen, ausrichten, sichern</t>
+  </si>
+  <si>
+    <t>Patchpanels montieren</t>
+  </si>
+  <si>
+    <t>Einbau, Erdung, Schrauben</t>
+  </si>
+  <si>
+    <t>Rangieren im Rack</t>
+  </si>
+  <si>
+    <t>Kabelmanagement vertikal/horizontal</t>
+  </si>
+  <si>
+    <t>Kabel auf Patchpanel auflegen</t>
+  </si>
+  <si>
+    <t>Switches installieren</t>
+  </si>
+  <si>
+    <t>Main Switch, Floor Switches, PoE Switches</t>
+  </si>
+  <si>
+    <t>WLAN-Controller installieren</t>
+  </si>
+  <si>
+    <t>Montage/Verkabelung</t>
+  </si>
+  <si>
+    <t>Access Points montieren</t>
+  </si>
+  <si>
+    <t>AP-Kabel ziehen</t>
+  </si>
+  <si>
+    <t>AP testen</t>
+  </si>
+  <si>
+    <t>Verbindung, PoE, LED-Status</t>
+  </si>
+  <si>
+    <t>Kupfermessung</t>
+  </si>
+  <si>
+    <t>170 Leitungen messtechnisch prüfen (~2 min/Stück)</t>
+  </si>
+  <si>
+    <t>LWL-Test</t>
+  </si>
+  <si>
+    <t>OTDR/Leistungsmessung</t>
+  </si>
+  <si>
+    <t>Switch-Konfiguration</t>
+  </si>
+  <si>
+    <t>VLANs, PoE, Routing-Grundkonfiguration</t>
+  </si>
+  <si>
+    <t>WLAN-Konfiguration</t>
+  </si>
+  <si>
+    <t>SSID, Sicherheit, Controller-Setup</t>
+  </si>
+  <si>
+    <t>End-zu-End Test</t>
+  </si>
+  <si>
+    <t>Clients, AP-Roaming, Lasttest</t>
+  </si>
+  <si>
+    <t>Baustelle reinigen</t>
+  </si>
+  <si>
+    <t>Verpackungen, Kabelreste, Staub entfernen</t>
+  </si>
+  <si>
+    <t>Dokumentation erstellen</t>
+  </si>
+  <si>
+    <t>Pläne, Portlisten, Rack-Diagramme, Fotos</t>
+  </si>
+  <si>
+    <t>Übergabe &amp; Einweisung</t>
+  </si>
+  <si>
+    <t>Besprechung, Erklärung der Anlage</t>
+  </si>
+  <si>
+    <t>Montage von Kabelkanal im EG</t>
+  </si>
+  <si>
+    <t>Montage weiterer Kabelkanäle in höheren Etagen</t>
+  </si>
+  <si>
+    <t>Montage der Trassen in der EG-Zwischendecke</t>
+  </si>
+  <si>
+    <t>Montage der Trassen</t>
+  </si>
+  <si>
+    <t>Montage in DG Zwischendecke</t>
+  </si>
+  <si>
+    <t>170 Stück montieren</t>
+  </si>
+  <si>
+    <t>LSA-Auflegen</t>
+  </si>
+  <si>
+    <t>Auflegen von Leitungen</t>
+  </si>
+  <si>
+    <t>APs bohren, befestigen, montieren</t>
+  </si>
+  <si>
+    <t>Verkabelung der AP</t>
+  </si>
+  <si>
+    <t>entspricht</t>
+  </si>
+  <si>
+    <t>18 Arbeitstagen</t>
   </si>
 </sst>
 </file>
@@ -218,7 +470,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +526,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +543,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -544,13 +804,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -656,11 +931,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,7 +957,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1770,34 +2049,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T103"/>
+  <dimension ref="B2:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="P56" zoomScale="93" workbookViewId="0">
+      <selection activeCell="U74" sqref="U74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" customWidth="1"/>
+    <col min="2" max="2" width="63.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.73046875" customWidth="1"/>
+    <col min="17" max="17" width="56.46484375" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="34.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.19921875" customWidth="1"/>
+    <col min="21" max="21" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="32.450000000000003">
+    <row r="2" spans="2:20" ht="32.25" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +2085,7 @@
       <c r="L2" s="18"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="2:20" ht="22.15">
+    <row r="3" spans="2:20" ht="21.75" x14ac:dyDescent="0.65">
       <c r="K3" s="34"/>
       <c r="P3" s="34" t="s">
         <v>1</v>
@@ -1814,12 +2094,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="19.5">
+    <row r="5" spans="2:20" ht="19.5" x14ac:dyDescent="0.6">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +2142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +2240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2048,7 +2328,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2086,7 +2366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -2186,7 +2466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +2517,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
@@ -2289,7 +2569,7 @@
         <v>360.125</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2615,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="2:20" ht="15">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
@@ -2381,7 +2661,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="2:20" ht="15">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2707,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="2:20" ht="15">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="15">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2551,7 +2831,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
       <c r="G21" s="15"/>
       <c r="K21" s="6" t="s">
         <v>21</v>
@@ -2576,7 +2856,7 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="2:20" ht="15">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -2604,7 +2884,7 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="2:20" ht="19.5">
+    <row r="23" spans="2:20" ht="19.5" x14ac:dyDescent="0.6">
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2924,7 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="2:20" ht="15">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2958,7 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="2:20" ht="15">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2992,7 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="2:20" ht="15">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +3026,7 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="2:20" ht="15">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="s">
         <v>4</v>
       </c>
@@ -2780,7 +3060,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="2:20" ht="15">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B28" s="8"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2806,7 +3086,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="2:20" ht="15">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
         <v>4</v>
       </c>
@@ -2838,7 +3118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +3149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="15">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="s">
         <v>16</v>
       </c>
@@ -2903,7 +3183,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" spans="2:20" ht="15">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2934,10 +3214,20 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="2:14" ht="15">
+      <c r="P32" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="s">
         <v>16</v>
       </c>
@@ -2967,8 +3257,20 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" ht="15">
+      <c r="P33" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="R33" s="43">
+        <v>2</v>
+      </c>
+      <c r="S33" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
@@ -2999,8 +3301,20 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="15">
+      <c r="P34" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="43">
+        <v>2</v>
+      </c>
+      <c r="S34" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="8" t="s">
         <v>4</v>
       </c>
@@ -3031,8 +3345,20 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="15">
+      <c r="P35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" s="43">
+        <v>3</v>
+      </c>
+      <c r="S35" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="s">
         <v>4</v>
       </c>
@@ -3062,8 +3388,20 @@
         <f>L36*M36*3+30</f>
         <v>576</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="15">
+      <c r="P36" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q36" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36" s="43">
+        <v>2</v>
+      </c>
+      <c r="S36" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="42" t="s">
         <v>4</v>
       </c>
@@ -3093,8 +3431,20 @@
         <f t="shared" ref="N37:N67" si="7">L37*M37*3+30</f>
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="15">
+      <c r="P37" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="R37" s="43">
+        <v>2</v>
+      </c>
+      <c r="S37" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F38">
         <f>SUM(F24:F37)</f>
         <v>36675.14</v>
@@ -3116,8 +3466,20 @@
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="P38" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="R38" s="43">
+        <v>2</v>
+      </c>
+      <c r="S38" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K39" s="6" t="s">
         <v>49</v>
       </c>
@@ -3132,8 +3494,20 @@
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="P39" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="R39" s="43">
+        <v>2</v>
+      </c>
+      <c r="S39" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K40" s="6" t="s">
         <v>49</v>
       </c>
@@ -3148,8 +3522,20 @@
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="P40" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="R40" s="43">
+        <v>3</v>
+      </c>
+      <c r="S40" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K41" s="6" t="s">
         <v>49</v>
       </c>
@@ -3164,8 +3550,20 @@
         <f t="shared" si="7"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="P41" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" s="43">
+        <v>3</v>
+      </c>
+      <c r="S41" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K42" s="6" t="s">
         <v>49</v>
       </c>
@@ -3180,8 +3578,20 @@
         <f t="shared" si="7"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="P42" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="R42" s="43">
+        <v>3</v>
+      </c>
+      <c r="S42" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K43" s="6" t="s">
         <v>49</v>
       </c>
@@ -3196,8 +3606,20 @@
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="P43" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="R43" s="43">
+        <v>2</v>
+      </c>
+      <c r="S43" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K44" s="6" t="s">
         <v>49</v>
       </c>
@@ -3212,8 +3634,20 @@
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="P44" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="R44" s="43">
+        <v>3</v>
+      </c>
+      <c r="S44" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K45" s="6" t="s">
         <v>49</v>
       </c>
@@ -3228,8 +3662,20 @@
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="P45" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" s="43">
+        <v>3</v>
+      </c>
+      <c r="S45" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K46" s="6" t="s">
         <v>49</v>
       </c>
@@ -3244,8 +3690,20 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="P46" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="R46" s="43">
+        <v>3</v>
+      </c>
+      <c r="S46" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K47" s="6" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3718,20 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="P47" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="R47" s="43">
+        <v>2</v>
+      </c>
+      <c r="S47" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.45">
       <c r="K48" s="24" t="s">
         <v>49</v>
       </c>
@@ -3276,8 +3746,20 @@
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="11:14">
+      <c r="P48" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q48" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="R48" s="43">
+        <v>1</v>
+      </c>
+      <c r="S48" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K49" s="6" t="s">
         <v>50</v>
       </c>
@@ -3291,8 +3773,20 @@
         <f t="shared" si="7"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="50" spans="11:14">
+      <c r="P49" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="R49" s="43">
+        <v>2</v>
+      </c>
+      <c r="S49" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K50" s="6" t="s">
         <v>50</v>
       </c>
@@ -3307,8 +3801,20 @@
         <f t="shared" si="7"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="51" spans="11:14">
+      <c r="P50" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="R50" s="43">
+        <v>1</v>
+      </c>
+      <c r="S50" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K51" s="6" t="s">
         <v>50</v>
       </c>
@@ -3323,8 +3829,20 @@
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="52" spans="11:14">
+      <c r="P51" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q51" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="R51" s="43">
+        <v>2</v>
+      </c>
+      <c r="S51" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K52" s="6" t="s">
         <v>50</v>
       </c>
@@ -3339,8 +3857,20 @@
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="11:14">
+      <c r="P52" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q52" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="R52" s="43">
+        <v>3</v>
+      </c>
+      <c r="S52" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K53" s="6" t="s">
         <v>50</v>
       </c>
@@ -3355,8 +3885,20 @@
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="11:14">
+      <c r="P53" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="R53" s="43">
+        <v>3</v>
+      </c>
+      <c r="S53" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K54" s="6" t="s">
         <v>50</v>
       </c>
@@ -3371,8 +3913,20 @@
         <f t="shared" si="7"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="55" spans="11:14">
+      <c r="P54" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q54" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="R54" s="43">
+        <v>1</v>
+      </c>
+      <c r="S54" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K55" s="6" t="s">
         <v>50</v>
       </c>
@@ -3387,8 +3941,20 @@
         <f t="shared" si="7"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="11:14">
+      <c r="P55" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R55" s="43">
+        <v>2</v>
+      </c>
+      <c r="S55" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K56" s="6" t="s">
         <v>50</v>
       </c>
@@ -3403,8 +3969,20 @@
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="57" spans="11:14">
+      <c r="P56" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q56" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="R56" s="43">
+        <v>2</v>
+      </c>
+      <c r="S56" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K57" s="6" t="s">
         <v>50</v>
       </c>
@@ -3419,8 +3997,20 @@
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="11:14">
+      <c r="P57" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q57" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="R57" s="43">
+        <v>2</v>
+      </c>
+      <c r="S57" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K58" s="6" t="s">
         <v>50</v>
       </c>
@@ -3435,8 +4025,20 @@
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="11:14">
+      <c r="P58" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q58" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="R58" s="43">
+        <v>3</v>
+      </c>
+      <c r="S58" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K59" s="6" t="s">
         <v>50</v>
       </c>
@@ -3451,8 +4053,20 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="11:14">
+      <c r="P59" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q59" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="R59" s="43">
+        <v>2</v>
+      </c>
+      <c r="S59" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K60" s="6" t="s">
         <v>50</v>
       </c>
@@ -3467,8 +4081,20 @@
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="11:14">
+      <c r="P60" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q60" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="R60" s="43">
+        <v>1</v>
+      </c>
+      <c r="S60" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K61" s="24" t="s">
         <v>50</v>
       </c>
@@ -3483,8 +4109,20 @@
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="11:14">
+      <c r="P61" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q61" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="R61" s="43">
+        <v>2</v>
+      </c>
+      <c r="S61" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K62" s="25" t="s">
         <v>51</v>
       </c>
@@ -3498,8 +4136,20 @@
         <f t="shared" si="7"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="63" spans="11:14">
+      <c r="P62" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q62" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="R62" s="43">
+        <v>2</v>
+      </c>
+      <c r="S62" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K63" s="6" t="s">
         <v>51</v>
       </c>
@@ -3514,8 +4164,20 @@
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="64" spans="11:14">
+      <c r="P63" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q63" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="R63" s="43">
+        <v>1</v>
+      </c>
+      <c r="S63" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K64" s="24" t="s">
         <v>51</v>
       </c>
@@ -3530,8 +4192,20 @@
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="11:14">
+      <c r="P64" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="R64" s="43">
+        <v>2</v>
+      </c>
+      <c r="S64" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K65" s="6" t="s">
         <v>52</v>
       </c>
@@ -3545,8 +4219,20 @@
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="66" spans="11:14">
+      <c r="P65" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q65" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="R65" s="43">
+        <v>1</v>
+      </c>
+      <c r="S65" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K66" s="6" t="s">
         <v>52</v>
       </c>
@@ -3561,8 +4247,20 @@
         <f t="shared" si="7"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="11:14" ht="15" thickBot="1">
+      <c r="P66" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q66" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="R66" s="43">
+        <v>1</v>
+      </c>
+      <c r="S66" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="11:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K67" s="27" t="s">
         <v>52</v>
       </c>
@@ -3577,8 +4275,20 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="11:14">
+      <c r="P67" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q67" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="R67" s="43">
+        <v>1</v>
+      </c>
+      <c r="S67" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K68" s="10" t="s">
         <v>53</v>
       </c>
@@ -3592,8 +4302,20 @@
         <f>L68*M68 + 15</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="11:14">
+      <c r="P68" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="R68" s="43">
+        <v>2</v>
+      </c>
+      <c r="S68" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K69" s="10" t="s">
         <v>53</v>
       </c>
@@ -3608,8 +4330,20 @@
         <f t="shared" ref="N69:N94" si="11">L69*M69 + 15</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="11:14">
+      <c r="P69" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q69" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="R69" s="43">
+        <v>2</v>
+      </c>
+      <c r="S69" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K70" s="10" t="s">
         <v>53</v>
       </c>
@@ -3624,8 +4358,20 @@
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="11:14">
+      <c r="P70" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q70" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="R70" s="43">
+        <v>1</v>
+      </c>
+      <c r="S70" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K71" s="10" t="s">
         <v>53</v>
       </c>
@@ -3640,8 +4386,20 @@
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="72" spans="11:14">
+      <c r="P71" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q71" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="R71" s="43">
+        <v>2</v>
+      </c>
+      <c r="S71" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K72" s="10" t="s">
         <v>53</v>
       </c>
@@ -3656,8 +4414,18 @@
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="11:14">
+      <c r="S72">
+        <f>SUM(S33:S71)</f>
+        <v>141.5</v>
+      </c>
+      <c r="T72" t="s">
+        <v>139</v>
+      </c>
+      <c r="U72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K73" s="10" t="s">
         <v>53</v>
       </c>
@@ -3673,7 +4441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="11:14">
+    <row r="74" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K74" s="10" t="s">
         <v>53</v>
       </c>
@@ -3689,7 +4457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="11:14">
+    <row r="75" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K75" s="10" t="s">
         <v>53</v>
       </c>
@@ -3705,7 +4473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="11:14">
+    <row r="76" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K76" s="10" t="s">
         <v>53</v>
       </c>
@@ -3721,7 +4489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="11:14">
+    <row r="77" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K77" s="10" t="s">
         <v>53</v>
       </c>
@@ -3737,7 +4505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="11:14">
+    <row r="78" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K78" s="10" t="s">
         <v>53</v>
       </c>
@@ -3753,7 +4521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="11:14">
+    <row r="79" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K79" s="10" t="s">
         <v>53</v>
       </c>
@@ -3769,7 +4537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="11:14">
+    <row r="80" spans="11:21" x14ac:dyDescent="0.45">
       <c r="K80" s="21" t="s">
         <v>53</v>
       </c>
@@ -3785,7 +4553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="11:14">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K81" s="10" t="s">
         <v>54</v>
       </c>
@@ -3800,7 +4568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="11:14">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K82" s="10" t="s">
         <v>54</v>
       </c>
@@ -3816,7 +4584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="11:14">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K83" s="10" t="s">
         <v>54</v>
       </c>
@@ -3832,7 +4600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="11:14">
+    <row r="84" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K84" s="10" t="s">
         <v>54</v>
       </c>
@@ -3848,7 +4616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="11:14">
+    <row r="85" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K85" s="10" t="s">
         <v>54</v>
       </c>
@@ -3864,7 +4632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="11:14">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K86" s="10" t="s">
         <v>54</v>
       </c>
@@ -3880,7 +4648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="11:14">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K87" s="10" t="s">
         <v>54</v>
       </c>
@@ -3896,7 +4664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="11:14">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K88" s="10" t="s">
         <v>54</v>
       </c>
@@ -3911,7 +4679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="11:14">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K89" s="21" t="s">
         <v>54</v>
       </c>
@@ -3926,7 +4694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="11:14">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K90" s="10" t="s">
         <v>55</v>
       </c>
@@ -3941,7 +4709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="11:14">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K91" s="10" t="s">
         <v>55</v>
       </c>
@@ -3956,7 +4724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="11:14">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K92" s="10" t="s">
         <v>55</v>
       </c>
@@ -3971,7 +4739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="11:14">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K93" s="10" t="s">
         <v>55</v>
       </c>
@@ -3986,7 +4754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="11:14" ht="15" thickBot="1">
+    <row r="94" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K94" s="29" t="s">
         <v>55</v>
       </c>
@@ -4001,7 +4769,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="11:14" ht="15" thickBot="1">
+    <row r="95" spans="11:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K95" s="14" t="s">
         <v>31</v>
       </c>
@@ -4017,49 +4785,49 @@
         <v>7274.5249999999996</v>
       </c>
     </row>
-    <row r="96" spans="11:14" ht="15" thickTop="1">
+    <row r="96" spans="11:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="11:14">
+    <row r="97" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="11:14">
+    <row r="98" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="11:14">
+    <row r="99" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="11:14">
+    <row r="100" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="11:14">
+    <row r="101" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="11:14">
+    <row r="102" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="11:14">
+    <row r="103" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
